--- a/docs/Test Cases.xlsx
+++ b/docs/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhuth\Desktop\lVTN_Project\lvtn_indieGameForum\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B753735-97E3-4015-A218-427286208AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6745CFC4-7F66-4EC2-AE9A-337B9BDA987C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="126" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Build 1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="125">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -108,9 +108,6 @@
     <t>TC_DANGKY_02</t>
   </si>
   <si>
-    <t>Kiểm thử người dùng nhập username không hợp lệ (rỗng)</t>
-  </si>
-  <si>
     <t>1. Người dùng nhập địa chỉ Email đúng định dạng</t>
   </si>
   <si>
@@ -124,6 +121,285 @@
   </si>
   <si>
     <t>Hiển thị thông báo "Vui lòng nhập Tên đăng nhập"</t>
+  </si>
+  <si>
+    <t>Kiểm thử người dùng nhập một trường bất kỳ không hợp lệ (rỗng)</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng đăng ký với username hoặc Email đã được sử dụng</t>
+  </si>
+  <si>
+    <t>2. Người dùng nhập địa chỉ Email đúng định dạng và đã được sử dụng bới tài khoản khác</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Email đã được sử dụng"</t>
+  </si>
+  <si>
+    <t>username: thaipham123</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>TC_DANGKY_03</t>
+  </si>
+  <si>
+    <t>TS_SGDGI_02</t>
+  </si>
+  <si>
+    <t>TC_DANGNHAP_01</t>
+  </si>
+  <si>
+    <t>Kiểm thử người dùng tìm kiếm dự án  và lọc dự án theo giá tăng dần</t>
+  </si>
+  <si>
+    <t>1. Nhập từ khoá tìm kiếm và nhấn Enter</t>
+  </si>
+  <si>
+    <t>2. Chọn bộ lọc theo giá</t>
+  </si>
+  <si>
+    <t>3. Chọn thứ tự tăng dần</t>
+  </si>
+  <si>
+    <t>4. Bấm nút xem</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách dự án trùng khớp</t>
+  </si>
+  <si>
+    <t>LAZR</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>TC_DANGNHAP_02</t>
+  </si>
+  <si>
+    <t>TC_TIMKIEM_01</t>
+  </si>
+  <si>
+    <t>TS_SGDGI_03</t>
+  </si>
+  <si>
+    <t>Kiểm thử người dùng đăng nhập với thông tin tài khoản chính xác</t>
+  </si>
+  <si>
+    <t>Kiểm thử người dùng đăng nhập với thông tin tài khoản sai</t>
+  </si>
+  <si>
+    <t>1. Nhập tên tài khoản đã đăng ký</t>
+  </si>
+  <si>
+    <t>2. Nhập mật khẩu đúng</t>
+  </si>
+  <si>
+    <t>3. Bấm nút đăng nhập</t>
+  </si>
+  <si>
+    <t>2. Nhập mật khẩu sai</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công! Điều hướng đến trang chủ</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo "Sai thông tin đăng nhập! Vui lòng thử lại"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password: Xtera123 </t>
+  </si>
+  <si>
+    <t>password: Xtera123d3</t>
+  </si>
+  <si>
+    <t>TC_TIMKIEM_02</t>
+  </si>
+  <si>
+    <t>Kiểm thử người dùng tìm kiếm dự án với từ khoá không tồn tại</t>
+  </si>
+  <si>
+    <t>Hiển thị text "Không có dự án nào trùng khớp"</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>TS_SGDGI_04</t>
+  </si>
+  <si>
+    <t>TC_DANGDUAN_02</t>
+  </si>
+  <si>
+    <t>TC_DANGDUAN_01</t>
+  </si>
+  <si>
+    <t>Kiểm thử người dùng đăng dự án với các thông tin hợp lệ, có hình ảnh và tệp dự án</t>
+  </si>
+  <si>
+    <t>1. Nhập các thông tin mô tả dự án</t>
+  </si>
+  <si>
+    <t>2. Chọn ảnh</t>
+  </si>
+  <si>
+    <t>3. Chọn tệp dự án</t>
+  </si>
+  <si>
+    <t>4. Xác nhận đăng dự án mới</t>
+  </si>
+  <si>
+    <t>Thông báo quá trình tải lên ảnh và tệp dự án. Sau đó điều hướng đến trang xem trước dự án</t>
+  </si>
+  <si>
+    <t>Tên dự án: Axis, loại: trò chơi, thể loại: hành động, 2d, phiêu lưu</t>
+  </si>
+  <si>
+    <t>Mô tả ngắn: mô tả ngắn</t>
+  </si>
+  <si>
+    <t>Mô tả chi tiết: Mô tả chi tiết</t>
+  </si>
+  <si>
+    <t>Kiểm thử người dùng đăng dự án với các thông tin hợp lệ, không có ảnh, có tệp dự án</t>
+  </si>
+  <si>
+    <t>3. Xác nhận đăng dự án mới</t>
+  </si>
+  <si>
+    <t>Thông báo quá trình tải lên tệp dự án. Sau đó điều hướng đến trang xem trước dự án</t>
+  </si>
+  <si>
+    <t>Tệp dự án cho: windows, android, ios, Hiển thị: riêng tư</t>
+  </si>
+  <si>
+    <t>Chọn ảnh bìa và ảnh màn hình</t>
+  </si>
+  <si>
+    <t>TC_DANGDUAN_03</t>
+  </si>
+  <si>
+    <t>Kiểm thử người dùng đăng dự án với các thông tin hợp lệ, không có ảnh, và không có tệp dự án</t>
+  </si>
+  <si>
+    <t>2. Chọn tệp dự án</t>
+  </si>
+  <si>
+    <t>2. Xác nhận đăng dự án mới</t>
+  </si>
+  <si>
+    <t>Thông báo quá trình lên thông tin dự án. Sau đó điều hướng đến trang xem trước dự án</t>
+  </si>
+  <si>
+    <t>TC_DANGDUAN_04</t>
+  </si>
+  <si>
+    <t>Kiểm thử người dùng đăng dự án với thông tin không có tên dự án</t>
+  </si>
+  <si>
+    <t>1. Nhập các thông tin mô tả dự án, bỏ trống tên dự án</t>
+  </si>
+  <si>
+    <t>Thông báo quá trình lên không thành công</t>
+  </si>
+  <si>
+    <t>Tên dự án: "", loại: trò chơi, thể loại: hành động, 2d, phiêu lưu</t>
+  </si>
+  <si>
+    <t>TS_SGDGI_05</t>
+  </si>
+  <si>
+    <t>Kiểm thử người dùng chỉnh sửa dự án với thông tin hợp lệ</t>
+  </si>
+  <si>
+    <t>1. Điều chỉnh thông tin mô tả dự án cần chỉnh sửa</t>
+  </si>
+  <si>
+    <t>2. Xác nhận lưu chỉnh sửa</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa thành công. Sau đó điều hướng đến trang xem trước dự án</t>
+  </si>
+  <si>
+    <t>Tên dự án điều chỉnh: Axxis 01</t>
+  </si>
+  <si>
+    <t>TC_CHINHSUADUAN_01</t>
+  </si>
+  <si>
+    <t>Kiểm thử người dùng chỉnh sửa dự án với tên dự án bỏ trống</t>
+  </si>
+  <si>
+    <t>1. Điều chỉnh thông tin mô tả dự án cần chỉnh sửa. Xoá hết tên dự án cũ</t>
+  </si>
+  <si>
+    <t>Thông báo tên dự án không được để trống</t>
+  </si>
+  <si>
+    <t>Tên dự án điều chỉnh: " "</t>
+  </si>
+  <si>
+    <t>TC_CHINHSUADUAN_02</t>
+  </si>
+  <si>
+    <t>TC_CAPNHATANH_02</t>
+  </si>
+  <si>
+    <t>TS_SGDGI_06</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng cập nhật hình ảnh bìa nhỏ cho dự án</t>
+  </si>
+  <si>
+    <t>1. Ấn nút cập nhật hình ảnh trong giao diện xem trước dự án</t>
+  </si>
+  <si>
+    <t>2. Chọn ảnh bìa nhỏ</t>
+  </si>
+  <si>
+    <t>3. Nhấn cập nhật</t>
+  </si>
+  <si>
+    <t>Hiển thị hiệu ứng cập nhât và reload lại trang</t>
+  </si>
+  <si>
+    <t>Chọn ảnh bìa nhỏ</t>
+  </si>
+  <si>
+    <t>TC_CAPNHATANH_01</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng cập nhật hình ảnh bìa lớn cho dự án</t>
+  </si>
+  <si>
+    <t>2. Chọn ảnh bìa lớn</t>
+  </si>
+  <si>
+    <t>Chọn ảnh bìa lớn</t>
+  </si>
+  <si>
+    <t>TC_CAPNHATANH_03</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng cập nhật hình ảnh màn hình cho dự án</t>
+  </si>
+  <si>
+    <t>2. Chọn nhiều ảnh màn hình</t>
+  </si>
+  <si>
+    <t>Chọn nhiều ảnh màn hình</t>
+  </si>
+  <si>
+    <t>TC_CAPNHATANH_04</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng cập nhật hình ảnh màn hình, ảnh bìa lớn và ảnh bìa nhỏ cho dự án</t>
+  </si>
+  <si>
+    <t>2. Chọn ảnh bìa lớn, chọn ảnh bìa nhỏ, chọn nhiều ảnh màn hình</t>
+  </si>
+  <si>
+    <t>Chọn các hình ảnh cần cập nhật</t>
   </si>
 </sst>
 </file>
@@ -235,27 +511,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -264,7 +534,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -484,19 +775,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C11"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H108" sqref="H108:J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.8984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="57.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="75.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47" style="1" customWidth="1"/>
+    <col min="3" max="3" width="86.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.8984375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="83.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.3984375" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.19921875" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
@@ -506,299 +796,1573 @@
     <col min="27" max="16384" width="12.59765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="8"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="6" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="9"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="1" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="9"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="1" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="9"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="1" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J20" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="7"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="7"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="7"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="7"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="2"/>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+    </row>
+    <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="4"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+    </row>
+    <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="4"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="4"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="4"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+    </row>
     <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1688,7 +3252,127 @@
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="132">
+    <mergeCell ref="H102:H106"/>
+    <mergeCell ref="I102:I106"/>
+    <mergeCell ref="J102:J106"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="E108:E112"/>
+    <mergeCell ref="F108:F112"/>
+    <mergeCell ref="H108:H112"/>
+    <mergeCell ref="I108:I112"/>
+    <mergeCell ref="J108:J112"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="F102:F106"/>
+    <mergeCell ref="H89:H93"/>
+    <mergeCell ref="I89:I93"/>
+    <mergeCell ref="J89:J93"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="E96:E100"/>
+    <mergeCell ref="F96:F100"/>
+    <mergeCell ref="H95:H99"/>
+    <mergeCell ref="I95:I99"/>
+    <mergeCell ref="J95:J99"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="F82:F86"/>
+    <mergeCell ref="H76:H80"/>
+    <mergeCell ref="I76:I80"/>
+    <mergeCell ref="J76:J80"/>
+    <mergeCell ref="H82:H86"/>
+    <mergeCell ref="I82:I86"/>
+    <mergeCell ref="J82:J86"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="E76:E80"/>
+    <mergeCell ref="F76:F80"/>
+    <mergeCell ref="H62:H67"/>
+    <mergeCell ref="I62:I67"/>
+    <mergeCell ref="J62:J67"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="E69:E74"/>
+    <mergeCell ref="F69:F74"/>
+    <mergeCell ref="H69:H74"/>
+    <mergeCell ref="I69:I74"/>
+    <mergeCell ref="J69:J74"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="F55:F60"/>
+    <mergeCell ref="H55:H60"/>
+    <mergeCell ref="I55:I60"/>
+    <mergeCell ref="J55:J60"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="F41:F46"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="I41:I45"/>
+    <mergeCell ref="J41:J45"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="B20:B25"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>

--- a/docs/Test Cases.xlsx
+++ b/docs/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhuth\Desktop\lVTN_Project\lvtn_indieGameForum\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6745CFC4-7F66-4EC2-AE9A-337B9BDA987C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4DC6C0-B951-4E0D-9151-684497ADF0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="126" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="126">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>Chọn các hình ảnh cần cập nhật</t>
+  </si>
+  <si>
+    <t>TC_CAPNHATDUAN_01</t>
   </si>
 </sst>
 </file>
@@ -522,26 +525,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -556,6 +541,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -775,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108:J112"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -797,47 +800,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -852,20 +855,20 @@
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
@@ -874,14 +877,14 @@
       <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="4"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
@@ -890,14 +893,14 @@
       <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
@@ -906,14 +909,14 @@
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
@@ -929,13 +932,13 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -950,20 +953,20 @@
       <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
@@ -972,14 +975,14 @@
       <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="4"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
@@ -988,36 +991,36 @@
       <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="4"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="4"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1026,78 +1029,78 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="10" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
       <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="4"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
       <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="4"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="4"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
@@ -1106,13 +1109,13 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="10" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1121,77 +1124,77 @@
       <c r="E20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="10" t="s">
         <v>58</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="4"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="4"/>
+      <c r="F22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="4"/>
+      <c r="F23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="4"/>
+      <c r="F24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1200,187 +1203,187 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="10" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
       <c r="G28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="4"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
       <c r="D29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="4"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="10"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="4"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="10"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="4"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="I32" s="8"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
-      <c r="I33" s="8"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="14" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="4" t="s">
+      <c r="H34" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="6" t="s">
+      <c r="I34" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J34" s="4" t="s">
+      <c r="J34" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="7"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="4"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="14"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="7"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="4"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="14"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="10"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="7"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="4"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="14"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="7"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="4"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="14"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="2"/>
       <c r="F39" s="3"/>
     </row>
@@ -1388,657 +1391,657 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="10" t="s">
         <v>64</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="6" t="s">
+      <c r="I41" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="J41" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="4"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="4"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="10"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="4"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="4"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="10"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="10" t="s">
         <v>74</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H48" s="4" t="s">
+      <c r="H48" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J48" s="4" t="s">
+      <c r="J48" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="4"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
       <c r="G49" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="4"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
       <c r="G50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="4"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
       <c r="G51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
     </row>
     <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="4"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
       <c r="G52" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
     </row>
     <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="4"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
     </row>
     <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="10" t="s">
         <v>80</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H55" s="4" t="s">
+      <c r="H55" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J55" s="4" t="s">
+      <c r="J55" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="4"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
       <c r="G56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
     </row>
     <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="4"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="10"/>
       <c r="D57" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
     </row>
     <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="4"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
       <c r="G58" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
     </row>
     <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="4"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
     </row>
     <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="4"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="10"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
     </row>
     <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="10" t="s">
         <v>84</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="10" t="s">
         <v>87</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J62" s="4" t="s">
+      <c r="J62" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="4"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="10"/>
       <c r="D63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
       <c r="G63" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
     </row>
     <row r="64" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="4"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="10"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
       <c r="G64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
     </row>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="4"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="10"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
     </row>
     <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="4"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="10"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="4"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="10"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="10" t="s">
         <v>89</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="10" t="s">
         <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H69" s="4" t="s">
+      <c r="H69" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I69" s="4" t="s">
+      <c r="I69" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J69" s="4" t="s">
+      <c r="J69" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="4"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
       <c r="G70" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
     </row>
     <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="4"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="10"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
       <c r="G71" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
     </row>
     <row r="72" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="4"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="10"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
     </row>
     <row r="73" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="4"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="10"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
     </row>
     <row r="74" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="4"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="10"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
     </row>
     <row r="75" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="10" t="s">
         <v>94</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="10" t="s">
         <v>97</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H76" s="4" t="s">
+      <c r="H76" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I76" s="4" t="s">
+      <c r="I76" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="J76" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="4"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="10"/>
       <c r="D77" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
     </row>
     <row r="78" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="4"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="10"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
     </row>
     <row r="79" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="4"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
     </row>
     <row r="80" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="4"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="10"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
     </row>
     <row r="81" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="10" t="s">
         <v>100</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="10" t="s">
         <v>102</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H82" s="4" t="s">
+      <c r="H82" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I82" s="4" t="s">
+      <c r="I82" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J82" s="4" t="s">
+      <c r="J82" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="4"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="10"/>
       <c r="D83" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="4"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="10"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="4"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="10"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="4"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="10"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D87" s="2"/>
@@ -2047,338 +2050,350 @@
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="10" t="s">
         <v>107</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H89" s="4" t="s">
+      <c r="H89" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I89" s="4" t="s">
+      <c r="I89" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J89" s="4" t="s">
+      <c r="J89" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="4"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="10"/>
       <c r="D90" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
     </row>
     <row r="91" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="4"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="10"/>
       <c r="D91" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
     </row>
     <row r="92" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
     </row>
     <row r="93" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
     </row>
     <row r="94" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H95" s="4" t="s">
+      <c r="H95" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I95" s="4" t="s">
+      <c r="I95" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J95" s="4" t="s">
+      <c r="J95" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="10" t="s">
         <v>114</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
     </row>
     <row r="97" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="4"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="10"/>
       <c r="D97" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
     </row>
     <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="4"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="10"/>
       <c r="D98" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
     </row>
     <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
     </row>
     <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
     </row>
     <row r="101" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="H102" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="I102" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="J102" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="4"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="10"/>
       <c r="D103" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
     </row>
     <row r="104" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="4"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="10"/>
       <c r="D104" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
     </row>
     <row r="105" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
     </row>
     <row r="106" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
     </row>
     <row r="107" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="108" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="10" t="s">
         <v>111</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="H108" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I108" s="4" t="s">
+      <c r="I108" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J108" s="4" t="s">
+      <c r="J108" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="4"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="10"/>
       <c r="D109" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
     </row>
     <row r="110" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="4"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="10"/>
       <c r="D110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
     </row>
     <row r="111" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
     </row>
     <row r="112" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-    </row>
-    <row r="113" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A112" s="10"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+    </row>
+    <row r="113" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="10"/>
+    </row>
+    <row r="117" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="10"/>
+    </row>
+    <row r="118" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="10"/>
+    </row>
+    <row r="119" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="10"/>
+    </row>
+    <row r="120" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3252,87 +3267,43 @@
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="132">
-    <mergeCell ref="H102:H106"/>
-    <mergeCell ref="I102:I106"/>
-    <mergeCell ref="J102:J106"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="E108:E112"/>
-    <mergeCell ref="F108:F112"/>
-    <mergeCell ref="H108:H112"/>
-    <mergeCell ref="I108:I112"/>
-    <mergeCell ref="J108:J112"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="F102:F106"/>
-    <mergeCell ref="H89:H93"/>
-    <mergeCell ref="I89:I93"/>
-    <mergeCell ref="J89:J93"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="E96:E100"/>
-    <mergeCell ref="F96:F100"/>
-    <mergeCell ref="H95:H99"/>
-    <mergeCell ref="I95:I99"/>
-    <mergeCell ref="J95:J99"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="E89:E93"/>
-    <mergeCell ref="F89:F93"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="F82:F86"/>
-    <mergeCell ref="H76:H80"/>
-    <mergeCell ref="I76:I80"/>
-    <mergeCell ref="J76:J80"/>
-    <mergeCell ref="H82:H86"/>
-    <mergeCell ref="I82:I86"/>
-    <mergeCell ref="J82:J86"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="E76:E80"/>
-    <mergeCell ref="F76:F80"/>
-    <mergeCell ref="H62:H67"/>
-    <mergeCell ref="I62:I67"/>
-    <mergeCell ref="J62:J67"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="E69:E74"/>
-    <mergeCell ref="F69:F74"/>
-    <mergeCell ref="H69:H74"/>
-    <mergeCell ref="I69:I74"/>
-    <mergeCell ref="J69:J74"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="E62:E67"/>
-    <mergeCell ref="F62:F67"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="J48:J53"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="F55:F60"/>
-    <mergeCell ref="H55:H60"/>
-    <mergeCell ref="I55:I60"/>
-    <mergeCell ref="J55:J60"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="F48:F53"/>
+  <mergeCells count="133">
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I24"/>
     <mergeCell ref="J27:J31"/>
     <mergeCell ref="A41:A46"/>
     <mergeCell ref="B41:B46"/>
@@ -3350,41 +3321,86 @@
     <mergeCell ref="I34:I38"/>
     <mergeCell ref="J34:J38"/>
     <mergeCell ref="F27:F32"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="F55:F60"/>
+    <mergeCell ref="H55:H60"/>
+    <mergeCell ref="I55:I60"/>
+    <mergeCell ref="J55:J60"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="H62:H67"/>
+    <mergeCell ref="I62:I67"/>
+    <mergeCell ref="J62:J67"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="E69:E74"/>
+    <mergeCell ref="F69:F74"/>
+    <mergeCell ref="H69:H74"/>
+    <mergeCell ref="I69:I74"/>
+    <mergeCell ref="J69:J74"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="F82:F86"/>
+    <mergeCell ref="H76:H80"/>
+    <mergeCell ref="I76:I80"/>
+    <mergeCell ref="J76:J80"/>
+    <mergeCell ref="H82:H86"/>
+    <mergeCell ref="I82:I86"/>
+    <mergeCell ref="J82:J86"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="E76:E80"/>
+    <mergeCell ref="F76:F80"/>
+    <mergeCell ref="H89:H93"/>
+    <mergeCell ref="I89:I93"/>
+    <mergeCell ref="J89:J93"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="E96:E100"/>
+    <mergeCell ref="F96:F100"/>
+    <mergeCell ref="H95:H99"/>
+    <mergeCell ref="I95:I99"/>
+    <mergeCell ref="J95:J99"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="H102:H106"/>
+    <mergeCell ref="I102:I106"/>
+    <mergeCell ref="J102:J106"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="E108:E112"/>
+    <mergeCell ref="F108:F112"/>
+    <mergeCell ref="H108:H112"/>
+    <mergeCell ref="I108:I112"/>
+    <mergeCell ref="J108:J112"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="F102:F106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/docs/Test Cases.xlsx
+++ b/docs/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhuth\Desktop\lVTN_Project\lvtn_indieGameForum\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4DC6C0-B951-4E0D-9151-684497ADF0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D286734-0201-406F-B293-E5799919C3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="126" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="272">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -402,7 +402,445 @@
     <t>Chọn các hình ảnh cần cập nhật</t>
   </si>
   <si>
-    <t>TC_CAPNHATDUAN_01</t>
+    <t>TC_CAPNHATPBDUAN_01</t>
+  </si>
+  <si>
+    <t>TS_SGDGI_07</t>
+  </si>
+  <si>
+    <t>1. Chọn chức năng chỉnh sửa dự án cần cập nhật</t>
+  </si>
+  <si>
+    <t>2. Chọn cập nhật phiên bản</t>
+  </si>
+  <si>
+    <t>3. Nhập mã số phiên bản mới vào giao diện cập nhật</t>
+  </si>
+  <si>
+    <t>4. Chọn các tệp dự án</t>
+  </si>
+  <si>
+    <t>5. Tích vào tạo Development-log</t>
+  </si>
+  <si>
+    <t>6. Nhấn nút cập nhật</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cập nhật thành công và reload lại</t>
+  </si>
+  <si>
+    <t>Số phiên bản: 1.2</t>
+  </si>
+  <si>
+    <t>Tệp cập nhật cho: Windows, Android, IOS</t>
+  </si>
+  <si>
+    <t>Tích tạo devlog</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng cập nhật phiên bản mới (Nhập đầy đủ thông tin) và tạo Development-log</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng cập nhật phiên bản mới (nhập đầy đủ thông tin) và không tạo Development-log</t>
+  </si>
+  <si>
+    <t>5. Nhấn nút cập nhật</t>
+  </si>
+  <si>
+    <t>Số phiên bản: 1.3</t>
+  </si>
+  <si>
+    <t>TC_CAPNHATPBDUAN_02</t>
+  </si>
+  <si>
+    <t>TC_CAPNHATPBDUAN_03</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng cập nhật phiên bản mới (nhập số phiên bản, không chọn tệp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị thông báo cập nhật không thành công, không được bỏ trống số phiên bản </t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng cập nhật phiên bản mới (không nhập số phiên bản, có chọn tệp)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Bỏ trống mã số phiên bản mới </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Chọn tệp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Nhập mã số phiên bản mới </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Không chọn tệp </t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cập nhật không thành công, chọn ít nhất 1 tệp</t>
+  </si>
+  <si>
+    <t>Số phiên bản: 1.4</t>
+  </si>
+  <si>
+    <t>TC_CAPNHATPBDUAN_04</t>
+  </si>
+  <si>
+    <t>TC_CAPNHATPBDUAN_05</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng cập nhật phiên bản mới (bỏ trống số phiên bản, không chọn tệp)</t>
+  </si>
+  <si>
+    <t>3. Nhấn nút cập nhật</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo cập nhật không thành công, mã số dự án không được bỏ trống, chọn ít nhất 1 tệp</t>
+  </si>
+  <si>
+    <t>Số phiên bản: 1.5</t>
+  </si>
+  <si>
+    <t>TC_DATGIAMGIA_01</t>
+  </si>
+  <si>
+    <t>TS_SGDGI_08</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng đặc giảm giá hợp lệ cho dự án của mình</t>
+  </si>
+  <si>
+    <t>1. Chọn dự án cần giảm giá và chọn đặt giảm giá</t>
+  </si>
+  <si>
+    <t>2. Nhập ngày bắt đầu hợp lệ</t>
+  </si>
+  <si>
+    <t>3. Nhập ngày kết thúc hợp lệ</t>
+  </si>
+  <si>
+    <t>4. Nhập số phần trăm giảm giá</t>
+  </si>
+  <si>
+    <t>5 Chọn nút đặt giảm giá</t>
+  </si>
+  <si>
+    <t>Thông báo đặt giảm giá thành công</t>
+  </si>
+  <si>
+    <t>Phần trăm: 20</t>
+  </si>
+  <si>
+    <t>TC_DATGIAMGIA_02</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng đặc giảm giá không hợp lên cho dự án của mình (Ngày bắt đầu bỏ trống hoặc ngày kết thúc bỏ trống)</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng đặc giảm giá không hợp lên cho dự án của mình (Bỏ trống cả 2 trường ngày bắt đầu và ngày kết thúc)</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng đặc giảm giá không hợp lên cho dự án của mình (Ngày kết thúc nhỏ hơn ngày bắt đầu)</t>
+  </si>
+  <si>
+    <t>2. Bỏ trống ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>2. Bỏ trống ngày bắt đầu và kết thúc</t>
+  </si>
+  <si>
+    <t>4 Chọn nút đặt giảm giá</t>
+  </si>
+  <si>
+    <t>3. Nhập số phần trăm giảm giá</t>
+  </si>
+  <si>
+    <t>Thông báo "Không được bỏ trống trường này"</t>
+  </si>
+  <si>
+    <t>TC_DATGIAMGIA_03</t>
+  </si>
+  <si>
+    <t>TC_DATGIAMGIA_04</t>
+  </si>
+  <si>
+    <t>2. Nhập ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>3. Nhập ngày kết thúc &lt; ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>5. Chọn nút đặt giảm giá</t>
+  </si>
+  <si>
+    <t>Thông báo "Ngày kết thúc không hợp lệ"</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu: 01/05/2024 7:00</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc: 07/05/2024 7:00</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu: 05/05/2024 7:00</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc: 01/05/2024 7:00</t>
+  </si>
+  <si>
+    <t>TC_MUADUAN_04</t>
+  </si>
+  <si>
+    <t>TS_SGDGI_09</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng mua dự án thanh toán bằng VNPay thành công</t>
+  </si>
+  <si>
+    <t>1. Xem dự án cần mua và bấm mua</t>
+  </si>
+  <si>
+    <t>2. Chọn thanh toán VNPay</t>
+  </si>
+  <si>
+    <t>3. Nhập thông tin thanh toán</t>
+  </si>
+  <si>
+    <t>4. Xác nhận thanh toán</t>
+  </si>
+  <si>
+    <t>Thông báo "Thanh toán thành công". Hệ thống gữi 1 thông báo đến email người dùng và chia sẽ một thư mục Google Drive của trò chơi cho người dùng.</t>
+  </si>
+  <si>
+    <t>TC_MUADUAN_01</t>
+  </si>
+  <si>
+    <t>TC_MUADUAN_02</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng mua dự án thanh toán bằng Paypal thành công</t>
+  </si>
+  <si>
+    <t>2. Chọn thanh toán Paypal</t>
+  </si>
+  <si>
+    <t>TC_MUADUAN_03</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng mua dự án miễn phí</t>
+  </si>
+  <si>
+    <t>1. Xem dự án miễn phí cần mua và bấm tải  xuống</t>
+  </si>
+  <si>
+    <t>2. Chọn nút tải xuống trong giao diện thanh toán</t>
+  </si>
+  <si>
+    <t>Thông báo "Thành công". Hệ thống gữi 1 thông báo đến email người dùng và chia sẽ một thư mục Google Drive của trò chơi cho người dùng.</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng mua dự án chưa phát hành hoặc của có tệp dự án</t>
+  </si>
+  <si>
+    <t>1. Chọn dự án cần mua và ấn mua</t>
+  </si>
+  <si>
+    <t>Nút mua bị ẩn. Người mua không thể thao tác</t>
+  </si>
+  <si>
+    <t>TS_SGDGI_10</t>
+  </si>
+  <si>
+    <t>TC_DANHGIADUAN_01</t>
+  </si>
+  <si>
+    <t>1. Chọn dự án đã mua cần đánh giá</t>
+  </si>
+  <si>
+    <t>2. Chọn nút đánh giá trong thư viện cá nhân hoặc chuyển tab đánh giá trong giao diện xem dự án</t>
+  </si>
+  <si>
+    <t>3. Chọn cảm xúc</t>
+  </si>
+  <si>
+    <t>4. Nhập nội dung đánh giá</t>
+  </si>
+  <si>
+    <t>5. Xác nhận gữi đánh giá</t>
+  </si>
+  <si>
+    <t>'Thông báo đánh giá thành công". Hiển thị danh sách đánh giá</t>
+  </si>
+  <si>
+    <t>Cảm xúc: Tốt</t>
+  </si>
+  <si>
+    <t>Nội dung: Game hay</t>
+  </si>
+  <si>
+    <t>TC_DANHGIADUAN_02</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng đánh giá dự án thành công (Nhập đầy đủ thông tin)</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng đánh giá dự án thành công (Bỏ trống nội dung đánh giá)</t>
+  </si>
+  <si>
+    <t>4. Bỏ trống nội dung đánh giá</t>
+  </si>
+  <si>
+    <t>TC_THEODOIDUAN_01</t>
+  </si>
+  <si>
+    <t>TS_SGDGI_11</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng theo dõi dự án</t>
+  </si>
+  <si>
+    <t>1. Xem dự án cần theo dõi</t>
+  </si>
+  <si>
+    <t>2. Nhấn nút theo dõi</t>
+  </si>
+  <si>
+    <t>Theo dõi thành công. Reload lại trang</t>
+  </si>
+  <si>
+    <t>TS_SGDGI_12</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng đăng bài viết thành công</t>
+  </si>
+  <si>
+    <t>1. Chọn nút đăng bài trên thanh Header</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Nhập đầy đủ thông tin bài viết </t>
+  </si>
+  <si>
+    <t>3. Nhấn đăng bài</t>
+  </si>
+  <si>
+    <t>Đăng bài thành công. Hiển thị giao diện danh sách bài đăng</t>
+  </si>
+  <si>
+    <t>TC_DANGBAIVIET_01</t>
+  </si>
+  <si>
+    <t>TC_DANGBAIVIET_02</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng đăng bài viết khi chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>Chuyển hướng đến trang đăng nhập</t>
+  </si>
+  <si>
+    <t>Tiêu đề: Hướng dẫn học lập trình</t>
+  </si>
+  <si>
+    <t>Nhãn: Hướng dẫn, forum</t>
+  </si>
+  <si>
+    <t>Loại: Câu hỏi; Hiển thị công khai;</t>
+  </si>
+  <si>
+    <t>TS_SGDGI_13</t>
+  </si>
+  <si>
+    <t>TC_CHINHSUABAIVIET_02</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng đăng bài không thành công (Không nhập đầy đủ các trường)</t>
+  </si>
+  <si>
+    <t>2. Để trống 1 trường thông tin</t>
+  </si>
+  <si>
+    <t>Nội dung: "123 "</t>
+  </si>
+  <si>
+    <t>Tiêu đề: ""</t>
+  </si>
+  <si>
+    <t>Đăng bài không thành công. Vui lòng nhập đầy đủ thông tin</t>
+  </si>
+  <si>
+    <t>TC_DANGBAIVIET_03</t>
+  </si>
+  <si>
+    <t>TC_CHINHSUABAIVIET_01</t>
+  </si>
+  <si>
+    <t>1. Chọn bài viết cần chỉnh và ấn nút chỉnh sửa</t>
+  </si>
+  <si>
+    <t>3. Lưu lại</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa bài viết thành công.</t>
+  </si>
+  <si>
+    <t>Tiêu đề mới: "Hướng dẫn lập trình C"</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng điều chỉnh tiêu đề bài viết hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng điều chỉnh tiêu đề bài viết thành rỗng hoặc xoá trống thông tin bài</t>
+  </si>
+  <si>
+    <t>2. Điều chỉnh tiêu đề thành rỗng</t>
+  </si>
+  <si>
+    <t>2. Điều chỉnh tiêu đề hợp lệ</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa bài viết không thành công.Vui lòng nhập đầy đủ thông tin</t>
+  </si>
+  <si>
+    <t>Tiêu đề mới: ""</t>
+  </si>
+  <si>
+    <t>TS_SGDGI_14</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng bình luận bài viết hợp lệ</t>
+  </si>
+  <si>
+    <t>Kiểm thử khi người dùng bình luận bài viết không hợp lệ (Bỏ trống nội dung bình luận)</t>
+  </si>
+  <si>
+    <t>1. Xem bài viết và chọn thêm bình luận</t>
+  </si>
+  <si>
+    <t>2. Nhập nội dung bình luận</t>
+  </si>
+  <si>
+    <t>3. Nhấn đăng</t>
+  </si>
+  <si>
+    <t>2. Không nhập nội dung bình luận</t>
+  </si>
+  <si>
+    <t>Thành công. Hiển thị bình luận mới</t>
+  </si>
+  <si>
+    <t>Thất bại. Không được bỏ trống nội dung</t>
+  </si>
+  <si>
+    <t>Nội dung:" Bài viết rất hay"</t>
+  </si>
+  <si>
+    <t>Nội dung:""</t>
+  </si>
+  <si>
+    <t>TC_BINHLUAN_01</t>
+  </si>
+  <si>
+    <t>TC_BINHLUAN_02</t>
   </si>
 </sst>
 </file>
@@ -514,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -544,10 +982,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -560,6 +1010,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -778,16 +1231,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A270" sqref="A270:A275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.8984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="86.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="83.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="87.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="83.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="58.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.3984375" style="1" customWidth="1"/>
@@ -834,13 +1287,13 @@
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -855,20 +1308,20 @@
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
@@ -877,14 +1330,14 @@
       <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="10"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
@@ -893,14 +1346,14 @@
       <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="10"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
@@ -909,14 +1362,14 @@
       <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="10"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
@@ -932,13 +1385,13 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -953,20 +1406,20 @@
       <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
@@ -975,14 +1428,14 @@
       <c r="G9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="10"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
@@ -991,36 +1444,36 @@
       <c r="G10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="10"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="10"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1029,78 +1482,78 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="10"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="10"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
@@ -1109,13 +1562,13 @@
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1124,77 +1577,77 @@
       <c r="E20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="10"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="10"/>
+      <c r="F22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="13"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="10"/>
+      <c r="F23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="10"/>
+      <c r="F24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1203,95 +1656,95 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="13" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="13" t="s">
         <v>59</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I27" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H28" s="10"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="10"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
       <c r="D29" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="10"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="10"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="10"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
       <c r="I32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,91 +1752,91 @@
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="18" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H34" s="10" t="s">
+      <c r="H34" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="I34" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="14"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="10"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="18"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="14"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="10"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="18"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="14"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="10"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="18"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="13"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="14"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="10"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="18"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="13"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="2"/>
       <c r="F39" s="3"/>
     </row>
@@ -1391,657 +1844,657 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="13" t="s">
         <v>64</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I41" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="10"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="10"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="13"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="10"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="10"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="13"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="13" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="10" t="s">
+      <c r="E48" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F48" s="10" t="s">
+      <c r="F48" s="13" t="s">
         <v>74</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H48" s="10" t="s">
+      <c r="H48" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="I48" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="10"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
       <c r="G49" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="10"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
       <c r="G50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="10"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="13"/>
       <c r="D51" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
     </row>
     <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="10"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
     </row>
     <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="10"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
     </row>
     <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="13" t="s">
         <v>78</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F55" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H55" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I55" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J55" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="10"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
       <c r="G56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="10"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="13"/>
       <c r="D57" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
       <c r="G57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
     </row>
     <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="10"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
     </row>
     <row r="59" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="10"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="13"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
     </row>
     <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="10"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="13"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="13" t="s">
         <v>84</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="E62" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="13" t="s">
         <v>87</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H62" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="I62" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="J62" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="10"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="13"/>
       <c r="D63" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
       <c r="G63" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
     </row>
     <row r="64" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="10"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="10"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
       <c r="G64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
     </row>
     <row r="65" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="10"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
     </row>
     <row r="66" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="10"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="10"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="10"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E69" s="10" t="s">
+      <c r="E69" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F69" s="10" t="s">
+      <c r="F69" s="13" t="s">
         <v>91</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="H69" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I69" s="10" t="s">
+      <c r="I69" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J69" s="10" t="s">
+      <c r="J69" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="10"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="10"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="13"/>
       <c r="D70" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
       <c r="G70" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
     </row>
     <row r="71" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="10"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="13"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
       <c r="G71" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
     </row>
     <row r="72" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="10"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="13"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
     </row>
     <row r="73" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="10"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="13"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
     </row>
     <row r="74" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="10"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="10"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
     </row>
     <row r="75" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C76" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E76" s="10" t="s">
+      <c r="E76" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F76" s="10" t="s">
+      <c r="F76" s="13" t="s">
         <v>97</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H76" s="10" t="s">
+      <c r="H76" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I76" s="10" t="s">
+      <c r="I76" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J76" s="10" t="s">
+      <c r="J76" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="10"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="10"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="13"/>
       <c r="D77" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
     </row>
     <row r="78" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="10"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="10"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="13"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
     </row>
     <row r="79" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="10"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="10"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="13"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
     </row>
     <row r="80" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="10"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="10"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="13"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
     </row>
     <row r="81" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C82" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="F82" s="10" t="s">
+      <c r="F82" s="13" t="s">
         <v>102</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="H82" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I82" s="10" t="s">
+      <c r="I82" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J82" s="10" t="s">
+      <c r="J82" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="10"/>
+      <c r="A83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="13"/>
       <c r="D83" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
+      <c r="E83" s="13"/>
+      <c r="F83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
     </row>
     <row r="84" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="10"/>
+      <c r="A84" s="13"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
     </row>
     <row r="85" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="10"/>
+      <c r="A85" s="13"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="13"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
     </row>
     <row r="86" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="10"/>
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="13"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
     </row>
     <row r="87" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D87" s="2"/>
@@ -2050,510 +2503,2434 @@
       <c r="D88" s="2"/>
     </row>
     <row r="89" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="13" t="s">
         <v>107</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="E89" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H89" s="10" t="s">
+      <c r="H89" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I89" s="10" t="s">
+      <c r="I89" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J89" s="10" t="s">
+      <c r="J89" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="10"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="10"/>
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
     </row>
     <row r="91" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="10"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="10"/>
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
     </row>
     <row r="92" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="10"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
     </row>
     <row r="93" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="10"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="13"/>
     </row>
     <row r="94" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H95" s="10" t="s">
+      <c r="H95" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I95" s="10" t="s">
+      <c r="I95" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J95" s="10" t="s">
+      <c r="J95" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C96" s="13" t="s">
         <v>114</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E96" s="10" t="s">
+      <c r="E96" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F96" s="10" t="s">
+      <c r="F96" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="13"/>
     </row>
     <row r="97" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="10"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="10"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="13"/>
       <c r="D97" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="13"/>
     </row>
     <row r="98" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="10"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="10"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="13"/>
       <c r="D98" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="13"/>
     </row>
     <row r="99" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="10"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
     </row>
     <row r="100" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="10"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
     </row>
     <row r="101" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="13" t="s">
         <v>118</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E102" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F102" s="10" t="s">
+      <c r="F102" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H102" s="10" t="s">
+      <c r="H102" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I102" s="10" t="s">
+      <c r="I102" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J102" s="10" t="s">
+      <c r="J102" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="10"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="10"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="13"/>
       <c r="D103" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
     </row>
     <row r="104" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="10"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="10"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="13"/>
       <c r="D104" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
     </row>
     <row r="105" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="10"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
     </row>
     <row r="106" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="10"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="13"/>
     </row>
     <row r="107" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="108" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="13" t="s">
         <v>122</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E108" s="10" t="s">
+      <c r="E108" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F108" s="10" t="s">
+      <c r="F108" s="13" t="s">
         <v>111</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H108" s="10" t="s">
+      <c r="H108" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I108" s="10" t="s">
+      <c r="I108" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J108" s="10" t="s">
+      <c r="J108" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="10"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="10"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="13"/>
       <c r="D109" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="13"/>
     </row>
     <row r="110" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="10"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="10"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="13"/>
       <c r="D110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="13"/>
     </row>
     <row r="111" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
     </row>
     <row r="112" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="10"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-    </row>
-    <row r="113" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="10" t="s">
+      <c r="A112" s="13"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="13"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+    </row>
+    <row r="113" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="10"/>
-    </row>
-    <row r="117" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="10"/>
-    </row>
-    <row r="118" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="10"/>
-    </row>
-    <row r="119" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
-    </row>
-    <row r="120" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B115" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G115" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J115" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E116" s="13"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H116" s="13"/>
+      <c r="I116" s="13"/>
+      <c r="J116" s="13"/>
+    </row>
+    <row r="117" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E117" s="13"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="H117" s="13"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="13"/>
+    </row>
+    <row r="118" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+    </row>
+    <row r="119" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+    </row>
+    <row r="120" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+    </row>
+    <row r="121" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="12"/>
+    </row>
+    <row r="122" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G122" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J122" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="13"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+    </row>
+    <row r="124" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="13"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+    </row>
+    <row r="125" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="13"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+    </row>
+    <row r="126" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+    </row>
+    <row r="127" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="13"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="15"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
+    </row>
+    <row r="128" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C129" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I129" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J129" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="13"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E130" s="13"/>
+      <c r="F130" s="13"/>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="13"/>
+    </row>
+    <row r="131" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="13"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E131" s="13"/>
+      <c r="F131" s="13"/>
+      <c r="H131" s="13"/>
+      <c r="I131" s="13"/>
+      <c r="J131" s="13"/>
+    </row>
+    <row r="132" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="13"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E132" s="13"/>
+      <c r="F132" s="13"/>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+      <c r="J132" s="13"/>
+    </row>
+    <row r="133" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="13"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E133" s="13"/>
+      <c r="F133" s="13"/>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
+      <c r="J133" s="13"/>
+    </row>
+    <row r="134" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="13"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="15"/>
+      <c r="E134" s="13"/>
+      <c r="F134" s="13"/>
+      <c r="H134" s="13"/>
+      <c r="I134" s="13"/>
+      <c r="J134" s="13"/>
+    </row>
+    <row r="135" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C136" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I136" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J136" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="13"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E137" s="13"/>
+      <c r="F137" s="13"/>
+      <c r="H137" s="13"/>
+      <c r="I137" s="13"/>
+      <c r="J137" s="13"/>
+    </row>
+    <row r="138" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="13"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+    </row>
+    <row r="139" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="13"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+    </row>
+    <row r="140" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="13"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E140" s="13"/>
+      <c r="F140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="13"/>
+    </row>
+    <row r="141" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="13"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="15"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+    </row>
+    <row r="142" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E143" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="F143" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J143" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="13"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="H144" s="13"/>
+      <c r="I144" s="13"/>
+      <c r="J144" s="13"/>
+    </row>
+    <row r="145" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="13"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="13"/>
+    </row>
+    <row r="146" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="13"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="13"/>
+    </row>
+    <row r="147" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="13"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="H147" s="13"/>
+      <c r="I147" s="13"/>
+      <c r="J147" s="13"/>
+    </row>
+    <row r="148" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="13"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="H148" s="13"/>
+      <c r="I148" s="13"/>
+      <c r="J148" s="13"/>
+    </row>
+    <row r="149" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E150" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H150" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I150" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J150" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="13"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H151" s="13"/>
+      <c r="I151" s="13"/>
+      <c r="J151" s="13"/>
+    </row>
+    <row r="152" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="13"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E152" s="13"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H152" s="13"/>
+      <c r="I152" s="13"/>
+      <c r="J152" s="13"/>
+    </row>
+    <row r="153" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="13"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E153" s="13"/>
+      <c r="F153" s="13"/>
+      <c r="H153" s="13"/>
+      <c r="I153" s="13"/>
+      <c r="J153" s="13"/>
+    </row>
+    <row r="154" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="13"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E154" s="13"/>
+      <c r="F154" s="13"/>
+      <c r="H154" s="13"/>
+      <c r="I154" s="13"/>
+      <c r="J154" s="13"/>
+    </row>
+    <row r="155" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="13"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="15"/>
+      <c r="H155" s="13"/>
+      <c r="I155" s="13"/>
+      <c r="J155" s="13"/>
+    </row>
+    <row r="156" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E157" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F157" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J157" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="13"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="13"/>
+    </row>
+    <row r="159" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="13"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="13"/>
+    </row>
+    <row r="160" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="13"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+    </row>
+    <row r="161" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="13"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="13"/>
+    </row>
+    <row r="162" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="13"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="15"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="13"/>
+    </row>
+    <row r="163" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C164" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E164" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F164" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H164" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I164" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J164" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="13"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="13"/>
+    </row>
+    <row r="166" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="13"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="13"/>
+    </row>
+    <row r="167" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="13"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E167" s="13"/>
+      <c r="F167" s="13"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="13"/>
+    </row>
+    <row r="168" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="13"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="15"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="13"/>
+    </row>
+    <row r="169" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="13"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="15"/>
+      <c r="H169" s="13"/>
+      <c r="I169" s="13"/>
+      <c r="J169" s="13"/>
+    </row>
+    <row r="170" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C171" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E171" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F171" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H171" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I171" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J171" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="13"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E172" s="13"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H172" s="13"/>
+      <c r="I172" s="13"/>
+      <c r="J172" s="13"/>
+    </row>
+    <row r="173" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="13"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E173" s="13"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H173" s="13"/>
+      <c r="I173" s="13"/>
+      <c r="J173" s="13"/>
+    </row>
+    <row r="174" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="13"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E174" s="13"/>
+      <c r="F174" s="13"/>
+      <c r="H174" s="13"/>
+      <c r="I174" s="13"/>
+      <c r="J174" s="13"/>
+    </row>
+    <row r="175" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="13"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E175" s="13"/>
+      <c r="F175" s="13"/>
+      <c r="H175" s="13"/>
+      <c r="I175" s="13"/>
+      <c r="J175" s="13"/>
+    </row>
+    <row r="176" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="13"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="15"/>
+      <c r="H176" s="13"/>
+      <c r="I176" s="13"/>
+      <c r="J176" s="13"/>
+    </row>
+    <row r="177" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E179" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F179" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H179" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I179" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J179" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="13"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="H180" s="13"/>
+      <c r="I180" s="13"/>
+      <c r="J180" s="13"/>
+    </row>
+    <row r="181" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="13"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
+      <c r="J181" s="13"/>
+    </row>
+    <row r="182" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="13"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="H182" s="13"/>
+      <c r="I182" s="13"/>
+      <c r="J182" s="13"/>
+    </row>
+    <row r="183" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="13"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="H183" s="13"/>
+      <c r="I183" s="13"/>
+      <c r="J183" s="13"/>
+    </row>
+    <row r="184" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="13"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="15"/>
+      <c r="H184" s="13"/>
+      <c r="I184" s="13"/>
+      <c r="J184" s="13"/>
+    </row>
+    <row r="185" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+    </row>
+    <row r="186" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E186" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F186" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="H186" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I186" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J186" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="13"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="H187" s="13"/>
+      <c r="I187" s="13"/>
+      <c r="J187" s="13"/>
+    </row>
+    <row r="188" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="13"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="15"/>
+      <c r="D188" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="H188" s="13"/>
+      <c r="I188" s="13"/>
+      <c r="J188" s="13"/>
+    </row>
+    <row r="189" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="13"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="H189" s="13"/>
+      <c r="I189" s="13"/>
+      <c r="J189" s="13"/>
+    </row>
+    <row r="190" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="13"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="H190" s="13"/>
+      <c r="I190" s="13"/>
+      <c r="J190" s="13"/>
+    </row>
+    <row r="191" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="13"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="15"/>
+      <c r="H191" s="13"/>
+      <c r="I191" s="13"/>
+      <c r="J191" s="13"/>
+    </row>
+    <row r="192" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C193" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E193" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F193" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H193" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I193" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J193" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="13"/>
+      <c r="B194" s="14"/>
+      <c r="C194" s="15"/>
+      <c r="D194" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E194" s="15"/>
+      <c r="F194" s="15"/>
+      <c r="H194" s="13"/>
+      <c r="I194" s="13"/>
+      <c r="J194" s="13"/>
+    </row>
+    <row r="195" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="13"/>
+      <c r="B195" s="14"/>
+      <c r="C195" s="15"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
+      <c r="H195" s="13"/>
+      <c r="I195" s="13"/>
+      <c r="J195" s="13"/>
+    </row>
+    <row r="196" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="13"/>
+      <c r="B196" s="14"/>
+      <c r="C196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="H196" s="13"/>
+      <c r="I196" s="13"/>
+      <c r="J196" s="13"/>
+    </row>
+    <row r="197" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="13"/>
+      <c r="B197" s="14"/>
+      <c r="C197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="H197" s="13"/>
+      <c r="I197" s="13"/>
+      <c r="J197" s="13"/>
+    </row>
+    <row r="198" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="13"/>
+      <c r="B198" s="14"/>
+      <c r="C198" s="15"/>
+      <c r="H198" s="13"/>
+      <c r="I198" s="13"/>
+      <c r="J198" s="13"/>
+    </row>
+    <row r="199" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E200" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F200" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="H200" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I200" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J200" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="13"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
+      <c r="H201" s="13"/>
+      <c r="I201" s="13"/>
+      <c r="J201" s="13"/>
+    </row>
+    <row r="202" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="13"/>
+      <c r="B202" s="14"/>
+      <c r="C202" s="15"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
+      <c r="H202" s="13"/>
+      <c r="I202" s="13"/>
+      <c r="J202" s="13"/>
+    </row>
+    <row r="203" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="13"/>
+      <c r="B203" s="14"/>
+      <c r="C203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="H203" s="13"/>
+      <c r="I203" s="13"/>
+      <c r="J203" s="13"/>
+    </row>
+    <row r="204" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="13"/>
+      <c r="B204" s="14"/>
+      <c r="C204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
+      <c r="H204" s="13"/>
+      <c r="I204" s="13"/>
+      <c r="J204" s="13"/>
+    </row>
+    <row r="205" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="13"/>
+      <c r="B205" s="14"/>
+      <c r="C205" s="15"/>
+      <c r="H205" s="13"/>
+      <c r="I205" s="13"/>
+      <c r="J205" s="13"/>
+    </row>
+    <row r="206" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E207" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F207" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H207" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I207" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J207" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="13"/>
+      <c r="B208" s="14"/>
+      <c r="C208" s="15"/>
+      <c r="D208" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E208" s="20"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H208" s="13"/>
+      <c r="I208" s="13"/>
+      <c r="J208" s="13"/>
+    </row>
+    <row r="209" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="13"/>
+      <c r="B209" s="14"/>
+      <c r="C209" s="15"/>
+      <c r="D209" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E209" s="20"/>
+      <c r="F209" s="20"/>
+      <c r="H209" s="13"/>
+      <c r="I209" s="13"/>
+      <c r="J209" s="13"/>
+    </row>
+    <row r="210" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="13"/>
+      <c r="B210" s="14"/>
+      <c r="C210" s="15"/>
+      <c r="D210" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E210" s="20"/>
+      <c r="F210" s="20"/>
+      <c r="H210" s="13"/>
+      <c r="I210" s="13"/>
+      <c r="J210" s="13"/>
+    </row>
+    <row r="211" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="13"/>
+      <c r="B211" s="14"/>
+      <c r="C211" s="15"/>
+      <c r="D211" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E211" s="20"/>
+      <c r="F211" s="20"/>
+      <c r="H211" s="13"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="13"/>
+    </row>
+    <row r="212" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="13"/>
+      <c r="B212" s="14"/>
+      <c r="C212" s="15"/>
+      <c r="E212" s="20"/>
+      <c r="F212" s="20"/>
+      <c r="H212" s="13"/>
+      <c r="I212" s="13"/>
+      <c r="J212" s="13"/>
+    </row>
+    <row r="213" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B214" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C214" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E214" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="F214" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H214" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I214" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J214" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="13"/>
+      <c r="B215" s="14"/>
+      <c r="C215" s="15"/>
+      <c r="D215" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E215" s="20"/>
+      <c r="F215" s="20"/>
+      <c r="H215" s="13"/>
+      <c r="I215" s="13"/>
+      <c r="J215" s="13"/>
+    </row>
+    <row r="216" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="13"/>
+      <c r="B216" s="14"/>
+      <c r="C216" s="15"/>
+      <c r="D216" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E216" s="20"/>
+      <c r="F216" s="20"/>
+      <c r="H216" s="13"/>
+      <c r="I216" s="13"/>
+      <c r="J216" s="13"/>
+    </row>
+    <row r="217" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="13"/>
+      <c r="B217" s="14"/>
+      <c r="C217" s="15"/>
+      <c r="D217" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E217" s="20"/>
+      <c r="F217" s="20"/>
+      <c r="H217" s="13"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="13"/>
+    </row>
+    <row r="218" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="13"/>
+      <c r="B218" s="14"/>
+      <c r="C218" s="15"/>
+      <c r="D218" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E218" s="20"/>
+      <c r="F218" s="20"/>
+      <c r="H218" s="13"/>
+      <c r="I218" s="13"/>
+      <c r="J218" s="13"/>
+    </row>
+    <row r="219" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="13"/>
+      <c r="B219" s="14"/>
+      <c r="C219" s="15"/>
+      <c r="E219" s="20"/>
+      <c r="F219" s="20"/>
+      <c r="H219" s="13"/>
+      <c r="I219" s="13"/>
+      <c r="J219" s="13"/>
+    </row>
+    <row r="220" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C221" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E221" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="F221" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="H221" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I221" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J221" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="13"/>
+      <c r="B222" s="14"/>
+      <c r="C222" s="15"/>
+      <c r="D222" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E222" s="20"/>
+      <c r="F222" s="20"/>
+      <c r="H222" s="13"/>
+      <c r="I222" s="13"/>
+      <c r="J222" s="13"/>
+    </row>
+    <row r="223" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="13"/>
+      <c r="B223" s="14"/>
+      <c r="C223" s="15"/>
+      <c r="E223" s="20"/>
+      <c r="F223" s="20"/>
+      <c r="H223" s="13"/>
+      <c r="I223" s="13"/>
+      <c r="J223" s="13"/>
+    </row>
+    <row r="224" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="13"/>
+      <c r="B224" s="14"/>
+      <c r="C224" s="15"/>
+      <c r="E224" s="20"/>
+      <c r="F224" s="20"/>
+      <c r="H224" s="13"/>
+      <c r="I224" s="13"/>
+      <c r="J224" s="13"/>
+    </row>
+    <row r="225" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="13"/>
+      <c r="B225" s="14"/>
+      <c r="C225" s="15"/>
+      <c r="E225" s="20"/>
+      <c r="F225" s="20"/>
+      <c r="H225" s="13"/>
+      <c r="I225" s="13"/>
+      <c r="J225" s="13"/>
+    </row>
+    <row r="226" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="13"/>
+      <c r="B226" s="14"/>
+      <c r="C226" s="15"/>
+      <c r="E226" s="20"/>
+      <c r="F226" s="20"/>
+      <c r="H226" s="13"/>
+      <c r="I226" s="13"/>
+      <c r="J226" s="13"/>
+    </row>
+    <row r="227" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C228" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E228" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F228" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H228" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I228" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J228" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="13"/>
+      <c r="B229" s="14"/>
+      <c r="C229" s="15"/>
+      <c r="D229" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
+      <c r="G229" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H229" s="13"/>
+      <c r="I229" s="13"/>
+      <c r="J229" s="13"/>
+    </row>
+    <row r="230" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="13"/>
+      <c r="B230" s="14"/>
+      <c r="C230" s="15"/>
+      <c r="D230" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
+      <c r="G230" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H230" s="13"/>
+      <c r="I230" s="13"/>
+      <c r="J230" s="13"/>
+    </row>
+    <row r="231" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="13"/>
+      <c r="B231" s="14"/>
+      <c r="C231" s="15"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="13"/>
+      <c r="G231" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H231" s="13"/>
+      <c r="I231" s="13"/>
+      <c r="J231" s="13"/>
+    </row>
+    <row r="232" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="13"/>
+      <c r="B232" s="14"/>
+      <c r="C232" s="15"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="13"/>
+      <c r="H232" s="13"/>
+      <c r="I232" s="13"/>
+      <c r="J232" s="13"/>
+    </row>
+    <row r="233" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="13"/>
+      <c r="B233" s="14"/>
+      <c r="C233" s="15"/>
+      <c r="H233" s="13"/>
+      <c r="I233" s="13"/>
+      <c r="J233" s="13"/>
+    </row>
+    <row r="234" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C235" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H235" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I235" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J235" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="13"/>
+      <c r="B236" s="14"/>
+      <c r="C236" s="15"/>
+      <c r="H236" s="13"/>
+      <c r="I236" s="13"/>
+      <c r="J236" s="13"/>
+    </row>
+    <row r="237" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="13"/>
+      <c r="B237" s="14"/>
+      <c r="C237" s="15"/>
+      <c r="D237" s="2"/>
+      <c r="H237" s="13"/>
+      <c r="I237" s="13"/>
+      <c r="J237" s="13"/>
+    </row>
+    <row r="238" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="13"/>
+      <c r="B238" s="14"/>
+      <c r="C238" s="15"/>
+      <c r="H238" s="13"/>
+      <c r="I238" s="13"/>
+      <c r="J238" s="13"/>
+    </row>
+    <row r="239" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="13"/>
+      <c r="B239" s="14"/>
+      <c r="C239" s="15"/>
+      <c r="H239" s="13"/>
+      <c r="I239" s="13"/>
+      <c r="J239" s="13"/>
+    </row>
+    <row r="240" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="13"/>
+      <c r="B240" s="14"/>
+      <c r="C240" s="15"/>
+      <c r="H240" s="13"/>
+      <c r="I240" s="13"/>
+      <c r="J240" s="13"/>
+    </row>
+    <row r="241" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B242" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C242" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E242" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F242" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H242" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I242" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J242" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="13"/>
+      <c r="B243" s="14"/>
+      <c r="C243" s="15"/>
+      <c r="D243" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E243" s="13"/>
+      <c r="F243" s="13"/>
+      <c r="G243" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H243" s="13"/>
+      <c r="I243" s="13"/>
+      <c r="J243" s="13"/>
+    </row>
+    <row r="244" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="13"/>
+      <c r="B244" s="14"/>
+      <c r="C244" s="15"/>
+      <c r="D244" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E244" s="13"/>
+      <c r="F244" s="13"/>
+      <c r="G244" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H244" s="13"/>
+      <c r="I244" s="13"/>
+      <c r="J244" s="13"/>
+    </row>
+    <row r="245" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="13"/>
+      <c r="B245" s="14"/>
+      <c r="C245" s="15"/>
+      <c r="E245" s="13"/>
+      <c r="F245" s="13"/>
+      <c r="G245" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H245" s="13"/>
+      <c r="I245" s="13"/>
+      <c r="J245" s="13"/>
+    </row>
+    <row r="246" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="13"/>
+      <c r="B246" s="14"/>
+      <c r="C246" s="15"/>
+      <c r="E246" s="13"/>
+      <c r="F246" s="13"/>
+      <c r="H246" s="13"/>
+      <c r="I246" s="13"/>
+      <c r="J246" s="13"/>
+    </row>
+    <row r="247" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="13"/>
+      <c r="B247" s="14"/>
+      <c r="C247" s="15"/>
+      <c r="H247" s="13"/>
+      <c r="I247" s="13"/>
+      <c r="J247" s="13"/>
+    </row>
+    <row r="248" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="B249" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C249" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E249" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F249" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H249" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I249" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J249" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="13"/>
+      <c r="B250" s="14"/>
+      <c r="C250" s="15"/>
+      <c r="D250" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E250" s="13"/>
+      <c r="F250" s="13"/>
+      <c r="H250" s="13"/>
+      <c r="I250" s="13"/>
+      <c r="J250" s="13"/>
+    </row>
+    <row r="251" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="13"/>
+      <c r="B251" s="14"/>
+      <c r="C251" s="15"/>
+      <c r="D251" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E251" s="13"/>
+      <c r="F251" s="13"/>
+      <c r="H251" s="13"/>
+      <c r="I251" s="13"/>
+      <c r="J251" s="13"/>
+    </row>
+    <row r="252" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="13"/>
+      <c r="B252" s="14"/>
+      <c r="C252" s="15"/>
+      <c r="E252" s="13"/>
+      <c r="F252" s="13"/>
+      <c r="H252" s="13"/>
+      <c r="I252" s="13"/>
+      <c r="J252" s="13"/>
+    </row>
+    <row r="253" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="13"/>
+      <c r="B253" s="14"/>
+      <c r="C253" s="15"/>
+      <c r="E253" s="13"/>
+      <c r="F253" s="13"/>
+      <c r="H253" s="13"/>
+      <c r="I253" s="13"/>
+      <c r="J253" s="13"/>
+    </row>
+    <row r="254" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="13"/>
+      <c r="B254" s="14"/>
+      <c r="C254" s="15"/>
+      <c r="E254" s="13"/>
+      <c r="F254" s="13"/>
+      <c r="H254" s="13"/>
+      <c r="I254" s="13"/>
+      <c r="J254" s="13"/>
+    </row>
+    <row r="255" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B256" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C256" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E256" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="F256" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H256" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I256" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J256" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="13"/>
+      <c r="B257" s="14"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E257" s="13"/>
+      <c r="F257" s="13"/>
+      <c r="H257" s="13"/>
+      <c r="I257" s="13"/>
+      <c r="J257" s="13"/>
+    </row>
+    <row r="258" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="13"/>
+      <c r="B258" s="14"/>
+      <c r="C258" s="15"/>
+      <c r="D258" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E258" s="13"/>
+      <c r="F258" s="13"/>
+      <c r="H258" s="13"/>
+      <c r="I258" s="13"/>
+      <c r="J258" s="13"/>
+    </row>
+    <row r="259" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="13"/>
+      <c r="B259" s="14"/>
+      <c r="C259" s="15"/>
+      <c r="E259" s="13"/>
+      <c r="F259" s="13"/>
+      <c r="H259" s="13"/>
+      <c r="I259" s="13"/>
+      <c r="J259" s="13"/>
+    </row>
+    <row r="260" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="13"/>
+      <c r="B260" s="14"/>
+      <c r="C260" s="15"/>
+      <c r="E260" s="13"/>
+      <c r="F260" s="13"/>
+      <c r="H260" s="13"/>
+      <c r="I260" s="13"/>
+      <c r="J260" s="13"/>
+    </row>
+    <row r="261" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="13"/>
+      <c r="B261" s="14"/>
+      <c r="C261" s="15"/>
+      <c r="E261" s="13"/>
+      <c r="F261" s="13"/>
+      <c r="H261" s="13"/>
+      <c r="I261" s="13"/>
+      <c r="J261" s="13"/>
+    </row>
+    <row r="262" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B263" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C263" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E263" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F263" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H263" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I263" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J263" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="13"/>
+      <c r="B264" s="14"/>
+      <c r="C264" s="15"/>
+      <c r="D264" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E264" s="13"/>
+      <c r="F264" s="13"/>
+      <c r="H264" s="13"/>
+      <c r="I264" s="13"/>
+      <c r="J264" s="13"/>
+    </row>
+    <row r="265" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="13"/>
+      <c r="B265" s="14"/>
+      <c r="C265" s="15"/>
+      <c r="D265" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E265" s="13"/>
+      <c r="F265" s="13"/>
+      <c r="H265" s="13"/>
+      <c r="I265" s="13"/>
+      <c r="J265" s="13"/>
+    </row>
+    <row r="266" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="13"/>
+      <c r="B266" s="14"/>
+      <c r="C266" s="15"/>
+      <c r="E266" s="13"/>
+      <c r="F266" s="13"/>
+      <c r="H266" s="13"/>
+      <c r="I266" s="13"/>
+      <c r="J266" s="13"/>
+    </row>
+    <row r="267" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="13"/>
+      <c r="B267" s="14"/>
+      <c r="C267" s="15"/>
+      <c r="E267" s="13"/>
+      <c r="F267" s="13"/>
+      <c r="H267" s="13"/>
+      <c r="I267" s="13"/>
+      <c r="J267" s="13"/>
+    </row>
+    <row r="268" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="13"/>
+      <c r="B268" s="14"/>
+      <c r="C268" s="15"/>
+      <c r="H268" s="13"/>
+      <c r="I268" s="13"/>
+      <c r="J268" s="13"/>
+    </row>
+    <row r="269" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C270" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E270" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F270" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H270" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I270" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J270" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="13"/>
+      <c r="B271" s="14"/>
+      <c r="C271" s="15"/>
+      <c r="D271" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E271" s="13"/>
+      <c r="F271" s="13"/>
+      <c r="H271" s="13"/>
+      <c r="I271" s="13"/>
+      <c r="J271" s="13"/>
+    </row>
+    <row r="272" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="13"/>
+      <c r="B272" s="14"/>
+      <c r="C272" s="15"/>
+      <c r="D272" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E272" s="13"/>
+      <c r="F272" s="13"/>
+      <c r="H272" s="13"/>
+      <c r="I272" s="13"/>
+      <c r="J272" s="13"/>
+    </row>
+    <row r="273" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="13"/>
+      <c r="B273" s="14"/>
+      <c r="C273" s="15"/>
+      <c r="E273" s="13"/>
+      <c r="F273" s="13"/>
+      <c r="H273" s="13"/>
+      <c r="I273" s="13"/>
+      <c r="J273" s="13"/>
+    </row>
+    <row r="274" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="13"/>
+      <c r="B274" s="14"/>
+      <c r="C274" s="15"/>
+      <c r="E274" s="13"/>
+      <c r="F274" s="13"/>
+      <c r="H274" s="13"/>
+      <c r="I274" s="13"/>
+      <c r="J274" s="13"/>
+    </row>
+    <row r="275" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="13"/>
+      <c r="B275" s="14"/>
+      <c r="C275" s="15"/>
+      <c r="H275" s="13"/>
+      <c r="I275" s="13"/>
+      <c r="J275" s="13"/>
+    </row>
+    <row r="276" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="289" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="290" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="291" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3267,8 +5644,131 @@
     <row r="999" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="133">
-    <mergeCell ref="A115:A119"/>
+  <mergeCells count="314">
+    <mergeCell ref="H263:H268"/>
+    <mergeCell ref="I263:I268"/>
+    <mergeCell ref="J263:J268"/>
+    <mergeCell ref="H270:H275"/>
+    <mergeCell ref="I270:I275"/>
+    <mergeCell ref="J270:J275"/>
+    <mergeCell ref="A263:A268"/>
+    <mergeCell ref="B263:B268"/>
+    <mergeCell ref="C263:C268"/>
+    <mergeCell ref="A270:A275"/>
+    <mergeCell ref="B270:B275"/>
+    <mergeCell ref="C270:C275"/>
+    <mergeCell ref="E263:E267"/>
+    <mergeCell ref="E270:E274"/>
+    <mergeCell ref="F270:F274"/>
+    <mergeCell ref="F263:F267"/>
+    <mergeCell ref="B249:B254"/>
+    <mergeCell ref="A249:A254"/>
+    <mergeCell ref="C249:C254"/>
+    <mergeCell ref="E249:E254"/>
+    <mergeCell ref="F249:F254"/>
+    <mergeCell ref="H249:H254"/>
+    <mergeCell ref="I249:I254"/>
+    <mergeCell ref="J249:J254"/>
+    <mergeCell ref="A256:A261"/>
+    <mergeCell ref="B256:B261"/>
+    <mergeCell ref="C256:C261"/>
+    <mergeCell ref="E256:E261"/>
+    <mergeCell ref="F256:F261"/>
+    <mergeCell ref="H256:H261"/>
+    <mergeCell ref="I256:I261"/>
+    <mergeCell ref="J256:J261"/>
+    <mergeCell ref="I235:I240"/>
+    <mergeCell ref="J235:J240"/>
+    <mergeCell ref="H228:H233"/>
+    <mergeCell ref="I228:I233"/>
+    <mergeCell ref="J228:J233"/>
+    <mergeCell ref="B242:B247"/>
+    <mergeCell ref="A242:A247"/>
+    <mergeCell ref="C242:C247"/>
+    <mergeCell ref="E242:E246"/>
+    <mergeCell ref="F242:F246"/>
+    <mergeCell ref="H242:H247"/>
+    <mergeCell ref="I242:I247"/>
+    <mergeCell ref="J242:J247"/>
+    <mergeCell ref="B228:B233"/>
+    <mergeCell ref="A228:A233"/>
+    <mergeCell ref="C228:C233"/>
+    <mergeCell ref="E228:E232"/>
+    <mergeCell ref="F228:F232"/>
+    <mergeCell ref="A235:A240"/>
+    <mergeCell ref="B235:B240"/>
+    <mergeCell ref="C235:C240"/>
+    <mergeCell ref="H235:H240"/>
+    <mergeCell ref="A214:A219"/>
+    <mergeCell ref="B214:B219"/>
+    <mergeCell ref="C214:C219"/>
+    <mergeCell ref="E214:E219"/>
+    <mergeCell ref="F214:F219"/>
+    <mergeCell ref="H214:H219"/>
+    <mergeCell ref="I214:I219"/>
+    <mergeCell ref="J214:J219"/>
+    <mergeCell ref="A221:A226"/>
+    <mergeCell ref="B221:B226"/>
+    <mergeCell ref="C221:C226"/>
+    <mergeCell ref="E221:E226"/>
+    <mergeCell ref="F221:F226"/>
+    <mergeCell ref="H221:H226"/>
+    <mergeCell ref="I221:I226"/>
+    <mergeCell ref="J221:J226"/>
+    <mergeCell ref="A200:A205"/>
+    <mergeCell ref="B200:B205"/>
+    <mergeCell ref="C200:C205"/>
+    <mergeCell ref="E200:E204"/>
+    <mergeCell ref="F200:F204"/>
+    <mergeCell ref="H200:H205"/>
+    <mergeCell ref="I200:I205"/>
+    <mergeCell ref="J200:J205"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="C207:C212"/>
+    <mergeCell ref="H207:H212"/>
+    <mergeCell ref="I207:I212"/>
+    <mergeCell ref="J207:J212"/>
+    <mergeCell ref="F207:F212"/>
+    <mergeCell ref="E207:E212"/>
+    <mergeCell ref="J186:J191"/>
+    <mergeCell ref="H186:H191"/>
+    <mergeCell ref="I186:I191"/>
+    <mergeCell ref="A193:A198"/>
+    <mergeCell ref="B193:B198"/>
+    <mergeCell ref="C193:C198"/>
+    <mergeCell ref="E193:E197"/>
+    <mergeCell ref="F193:F197"/>
+    <mergeCell ref="H193:H198"/>
+    <mergeCell ref="I193:I198"/>
+    <mergeCell ref="J193:J198"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="B186:B191"/>
+    <mergeCell ref="C186:C191"/>
+    <mergeCell ref="E186:E190"/>
+    <mergeCell ref="F186:F190"/>
+    <mergeCell ref="H171:H176"/>
+    <mergeCell ref="I171:I176"/>
+    <mergeCell ref="J171:J176"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="B179:B184"/>
+    <mergeCell ref="C179:C184"/>
+    <mergeCell ref="E179:E183"/>
+    <mergeCell ref="F179:F183"/>
+    <mergeCell ref="H179:H184"/>
+    <mergeCell ref="I179:I184"/>
+    <mergeCell ref="J179:J184"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
     <mergeCell ref="J2:J5"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
@@ -3281,17 +5781,6 @@
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="F20:F24"/>
     <mergeCell ref="H27:H31"/>
@@ -3401,6 +5890,75 @@
     <mergeCell ref="C102:C106"/>
     <mergeCell ref="E102:E106"/>
     <mergeCell ref="F102:F106"/>
+    <mergeCell ref="I115:I120"/>
+    <mergeCell ref="J115:J120"/>
+    <mergeCell ref="A122:A127"/>
+    <mergeCell ref="B122:B127"/>
+    <mergeCell ref="C122:C127"/>
+    <mergeCell ref="E122:E127"/>
+    <mergeCell ref="F122:F127"/>
+    <mergeCell ref="H122:H127"/>
+    <mergeCell ref="I122:I127"/>
+    <mergeCell ref="J122:J127"/>
+    <mergeCell ref="C115:C120"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="A115:A120"/>
+    <mergeCell ref="E115:E120"/>
+    <mergeCell ref="F115:F120"/>
+    <mergeCell ref="H115:H120"/>
+    <mergeCell ref="J129:J134"/>
+    <mergeCell ref="A136:A141"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="C136:C141"/>
+    <mergeCell ref="E136:E141"/>
+    <mergeCell ref="F136:F141"/>
+    <mergeCell ref="H136:H141"/>
+    <mergeCell ref="I136:I141"/>
+    <mergeCell ref="J136:J141"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="C129:C134"/>
+    <mergeCell ref="E129:E134"/>
+    <mergeCell ref="F129:F134"/>
+    <mergeCell ref="H129:H134"/>
+    <mergeCell ref="I129:I134"/>
+    <mergeCell ref="H143:H148"/>
+    <mergeCell ref="I143:I148"/>
+    <mergeCell ref="J143:J148"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="C150:C155"/>
+    <mergeCell ref="E150:E154"/>
+    <mergeCell ref="F150:F154"/>
+    <mergeCell ref="H150:H155"/>
+    <mergeCell ref="I150:I155"/>
+    <mergeCell ref="J150:J155"/>
+    <mergeCell ref="C171:C176"/>
+    <mergeCell ref="E157:E161"/>
+    <mergeCell ref="F157:F161"/>
+    <mergeCell ref="B164:B169"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="C143:C148"/>
+    <mergeCell ref="E143:E148"/>
+    <mergeCell ref="F143:F148"/>
+    <mergeCell ref="E171:E175"/>
+    <mergeCell ref="F171:F175"/>
+    <mergeCell ref="H157:H162"/>
+    <mergeCell ref="I157:I162"/>
+    <mergeCell ref="J157:J162"/>
+    <mergeCell ref="H164:H169"/>
+    <mergeCell ref="I164:I169"/>
+    <mergeCell ref="J164:J169"/>
+    <mergeCell ref="E164:E168"/>
+    <mergeCell ref="F164:F168"/>
+    <mergeCell ref="A157:A162"/>
+    <mergeCell ref="B157:B162"/>
+    <mergeCell ref="C157:C162"/>
+    <mergeCell ref="C164:C169"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/docs/Test Cases.xlsx
+++ b/docs/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhuth\Desktop\lVTN_Project\lvtn_indieGameForum\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D286734-0201-406F-B293-E5799919C3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4985FEC9-F19C-4383-ABDF-6CECFA69A853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="126" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -999,8 +999,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1011,8 +1011,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A270" sqref="A270:A275"/>
     </sheetView>
   </sheetViews>
@@ -1853,7 +1853,7 @@
       <c r="C41" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E41" s="13" t="s">
@@ -1879,7 +1879,7 @@
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="20"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="H42" s="13"/>
@@ -4041,10 +4041,10 @@
       <c r="D207" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E207" s="20" t="s">
+      <c r="E207" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F207" s="20" t="s">
+      <c r="F207" s="16" t="s">
         <v>214</v>
       </c>
       <c r="G207" s="1" t="s">
@@ -4067,8 +4067,8 @@
       <c r="D208" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E208" s="20"/>
-      <c r="F208" s="20"/>
+      <c r="E208" s="16"/>
+      <c r="F208" s="16"/>
       <c r="G208" s="1" t="s">
         <v>216</v>
       </c>
@@ -4083,8 +4083,8 @@
       <c r="D209" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E209" s="20"/>
-      <c r="F209" s="20"/>
+      <c r="E209" s="16"/>
+      <c r="F209" s="16"/>
       <c r="H209" s="13"/>
       <c r="I209" s="13"/>
       <c r="J209" s="13"/>
@@ -4096,8 +4096,8 @@
       <c r="D210" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E210" s="20"/>
-      <c r="F210" s="20"/>
+      <c r="E210" s="16"/>
+      <c r="F210" s="16"/>
       <c r="H210" s="13"/>
       <c r="I210" s="13"/>
       <c r="J210" s="13"/>
@@ -4109,8 +4109,8 @@
       <c r="D211" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E211" s="20"/>
-      <c r="F211" s="20"/>
+      <c r="E211" s="16"/>
+      <c r="F211" s="16"/>
       <c r="H211" s="13"/>
       <c r="I211" s="13"/>
       <c r="J211" s="13"/>
@@ -4119,8 +4119,8 @@
       <c r="A212" s="13"/>
       <c r="B212" s="14"/>
       <c r="C212" s="15"/>
-      <c r="E212" s="20"/>
-      <c r="F212" s="20"/>
+      <c r="E212" s="16"/>
+      <c r="F212" s="16"/>
       <c r="H212" s="13"/>
       <c r="I212" s="13"/>
       <c r="J212" s="13"/>
@@ -4139,10 +4139,10 @@
       <c r="D214" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E214" s="20" t="s">
+      <c r="E214" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F214" s="20" t="s">
+      <c r="F214" s="16" t="s">
         <v>214</v>
       </c>
       <c r="G214" s="1" t="s">
@@ -4165,8 +4165,8 @@
       <c r="D215" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E215" s="20"/>
-      <c r="F215" s="20"/>
+      <c r="E215" s="16"/>
+      <c r="F215" s="16"/>
       <c r="H215" s="13"/>
       <c r="I215" s="13"/>
       <c r="J215" s="13"/>
@@ -4178,8 +4178,8 @@
       <c r="D216" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E216" s="20"/>
-      <c r="F216" s="20"/>
+      <c r="E216" s="16"/>
+      <c r="F216" s="16"/>
       <c r="H216" s="13"/>
       <c r="I216" s="13"/>
       <c r="J216" s="13"/>
@@ -4191,8 +4191,8 @@
       <c r="D217" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E217" s="20"/>
-      <c r="F217" s="20"/>
+      <c r="E217" s="16"/>
+      <c r="F217" s="16"/>
       <c r="H217" s="13"/>
       <c r="I217" s="13"/>
       <c r="J217" s="13"/>
@@ -4204,8 +4204,8 @@
       <c r="D218" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E218" s="20"/>
-      <c r="F218" s="20"/>
+      <c r="E218" s="16"/>
+      <c r="F218" s="16"/>
       <c r="H218" s="13"/>
       <c r="I218" s="13"/>
       <c r="J218" s="13"/>
@@ -4214,8 +4214,8 @@
       <c r="A219" s="13"/>
       <c r="B219" s="14"/>
       <c r="C219" s="15"/>
-      <c r="E219" s="20"/>
-      <c r="F219" s="20"/>
+      <c r="E219" s="16"/>
+      <c r="F219" s="16"/>
       <c r="H219" s="13"/>
       <c r="I219" s="13"/>
       <c r="J219" s="13"/>
@@ -4234,10 +4234,10 @@
       <c r="D221" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E221" s="20" t="s">
+      <c r="E221" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="F221" s="20" t="s">
+      <c r="F221" s="16" t="s">
         <v>226</v>
       </c>
       <c r="H221" s="13" t="s">
@@ -4257,8 +4257,8 @@
       <c r="D222" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E222" s="20"/>
-      <c r="F222" s="20"/>
+      <c r="E222" s="16"/>
+      <c r="F222" s="16"/>
       <c r="H222" s="13"/>
       <c r="I222" s="13"/>
       <c r="J222" s="13"/>
@@ -4267,8 +4267,8 @@
       <c r="A223" s="13"/>
       <c r="B223" s="14"/>
       <c r="C223" s="15"/>
-      <c r="E223" s="20"/>
-      <c r="F223" s="20"/>
+      <c r="E223" s="16"/>
+      <c r="F223" s="16"/>
       <c r="H223" s="13"/>
       <c r="I223" s="13"/>
       <c r="J223" s="13"/>
@@ -4277,8 +4277,8 @@
       <c r="A224" s="13"/>
       <c r="B224" s="14"/>
       <c r="C224" s="15"/>
-      <c r="E224" s="20"/>
-      <c r="F224" s="20"/>
+      <c r="E224" s="16"/>
+      <c r="F224" s="16"/>
       <c r="H224" s="13"/>
       <c r="I224" s="13"/>
       <c r="J224" s="13"/>
@@ -4287,8 +4287,8 @@
       <c r="A225" s="13"/>
       <c r="B225" s="14"/>
       <c r="C225" s="15"/>
-      <c r="E225" s="20"/>
-      <c r="F225" s="20"/>
+      <c r="E225" s="16"/>
+      <c r="F225" s="16"/>
       <c r="H225" s="13"/>
       <c r="I225" s="13"/>
       <c r="J225" s="13"/>
@@ -4297,8 +4297,8 @@
       <c r="A226" s="13"/>
       <c r="B226" s="14"/>
       <c r="C226" s="15"/>
-      <c r="E226" s="20"/>
-      <c r="F226" s="20"/>
+      <c r="E226" s="16"/>
+      <c r="F226" s="16"/>
       <c r="H226" s="13"/>
       <c r="I226" s="13"/>
       <c r="J226" s="13"/>
@@ -5645,38 +5645,266 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="314">
-    <mergeCell ref="H263:H268"/>
-    <mergeCell ref="I263:I268"/>
-    <mergeCell ref="J263:J268"/>
-    <mergeCell ref="H270:H275"/>
-    <mergeCell ref="I270:I275"/>
-    <mergeCell ref="J270:J275"/>
-    <mergeCell ref="A263:A268"/>
-    <mergeCell ref="B263:B268"/>
-    <mergeCell ref="C263:C268"/>
-    <mergeCell ref="A270:A275"/>
-    <mergeCell ref="B270:B275"/>
-    <mergeCell ref="C270:C275"/>
-    <mergeCell ref="E263:E267"/>
-    <mergeCell ref="E270:E274"/>
-    <mergeCell ref="F270:F274"/>
-    <mergeCell ref="F263:F267"/>
-    <mergeCell ref="B249:B254"/>
-    <mergeCell ref="A249:A254"/>
-    <mergeCell ref="C249:C254"/>
-    <mergeCell ref="E249:E254"/>
-    <mergeCell ref="F249:F254"/>
-    <mergeCell ref="H249:H254"/>
-    <mergeCell ref="I249:I254"/>
-    <mergeCell ref="J249:J254"/>
-    <mergeCell ref="A256:A261"/>
-    <mergeCell ref="B256:B261"/>
-    <mergeCell ref="C256:C261"/>
-    <mergeCell ref="E256:E261"/>
-    <mergeCell ref="F256:F261"/>
-    <mergeCell ref="H256:H261"/>
-    <mergeCell ref="I256:I261"/>
-    <mergeCell ref="J256:J261"/>
+    <mergeCell ref="H157:H162"/>
+    <mergeCell ref="I157:I162"/>
+    <mergeCell ref="J157:J162"/>
+    <mergeCell ref="H164:H169"/>
+    <mergeCell ref="I164:I169"/>
+    <mergeCell ref="J164:J169"/>
+    <mergeCell ref="E164:E168"/>
+    <mergeCell ref="F164:F168"/>
+    <mergeCell ref="A157:A162"/>
+    <mergeCell ref="B157:B162"/>
+    <mergeCell ref="C157:C162"/>
+    <mergeCell ref="C164:C169"/>
+    <mergeCell ref="E157:E161"/>
+    <mergeCell ref="F157:F161"/>
+    <mergeCell ref="B164:B169"/>
+    <mergeCell ref="B171:B176"/>
+    <mergeCell ref="A164:A169"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="A143:A148"/>
+    <mergeCell ref="B143:B148"/>
+    <mergeCell ref="C143:C148"/>
+    <mergeCell ref="E143:E148"/>
+    <mergeCell ref="F143:F148"/>
+    <mergeCell ref="E171:E175"/>
+    <mergeCell ref="F171:F175"/>
+    <mergeCell ref="H143:H148"/>
+    <mergeCell ref="I143:I148"/>
+    <mergeCell ref="J143:J148"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="C150:C155"/>
+    <mergeCell ref="E150:E154"/>
+    <mergeCell ref="F150:F154"/>
+    <mergeCell ref="H150:H155"/>
+    <mergeCell ref="I150:I155"/>
+    <mergeCell ref="J150:J155"/>
+    <mergeCell ref="J129:J134"/>
+    <mergeCell ref="A136:A141"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="C136:C141"/>
+    <mergeCell ref="E136:E141"/>
+    <mergeCell ref="F136:F141"/>
+    <mergeCell ref="H136:H141"/>
+    <mergeCell ref="I136:I141"/>
+    <mergeCell ref="J136:J141"/>
+    <mergeCell ref="A129:A134"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="C129:C134"/>
+    <mergeCell ref="E129:E134"/>
+    <mergeCell ref="F129:F134"/>
+    <mergeCell ref="H129:H134"/>
+    <mergeCell ref="I129:I134"/>
+    <mergeCell ref="I115:I120"/>
+    <mergeCell ref="J115:J120"/>
+    <mergeCell ref="A122:A127"/>
+    <mergeCell ref="B122:B127"/>
+    <mergeCell ref="C122:C127"/>
+    <mergeCell ref="E122:E127"/>
+    <mergeCell ref="F122:F127"/>
+    <mergeCell ref="H122:H127"/>
+    <mergeCell ref="I122:I127"/>
+    <mergeCell ref="J122:J127"/>
+    <mergeCell ref="C115:C120"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="A115:A120"/>
+    <mergeCell ref="E115:E120"/>
+    <mergeCell ref="F115:F120"/>
+    <mergeCell ref="H115:H120"/>
+    <mergeCell ref="H102:H106"/>
+    <mergeCell ref="I102:I106"/>
+    <mergeCell ref="J102:J106"/>
+    <mergeCell ref="A108:A112"/>
+    <mergeCell ref="B108:B112"/>
+    <mergeCell ref="C108:C112"/>
+    <mergeCell ref="E108:E112"/>
+    <mergeCell ref="F108:F112"/>
+    <mergeCell ref="H108:H112"/>
+    <mergeCell ref="I108:I112"/>
+    <mergeCell ref="J108:J112"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="F102:F106"/>
+    <mergeCell ref="H89:H93"/>
+    <mergeCell ref="I89:I93"/>
+    <mergeCell ref="J89:J93"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="B96:B100"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="E96:E100"/>
+    <mergeCell ref="F96:F100"/>
+    <mergeCell ref="H95:H99"/>
+    <mergeCell ref="I95:I99"/>
+    <mergeCell ref="J95:J99"/>
+    <mergeCell ref="A89:A93"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="E89:E93"/>
+    <mergeCell ref="F89:F93"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="F82:F86"/>
+    <mergeCell ref="H76:H80"/>
+    <mergeCell ref="I76:I80"/>
+    <mergeCell ref="J76:J80"/>
+    <mergeCell ref="H82:H86"/>
+    <mergeCell ref="I82:I86"/>
+    <mergeCell ref="J82:J86"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="E76:E80"/>
+    <mergeCell ref="F76:F80"/>
+    <mergeCell ref="H62:H67"/>
+    <mergeCell ref="I62:I67"/>
+    <mergeCell ref="J62:J67"/>
+    <mergeCell ref="A69:A74"/>
+    <mergeCell ref="B69:B74"/>
+    <mergeCell ref="C69:C74"/>
+    <mergeCell ref="E69:E74"/>
+    <mergeCell ref="F69:F74"/>
+    <mergeCell ref="H69:H74"/>
+    <mergeCell ref="I69:I74"/>
+    <mergeCell ref="J69:J74"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:B67"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="E62:E67"/>
+    <mergeCell ref="F62:F67"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="A55:A60"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="F55:F60"/>
+    <mergeCell ref="H55:H60"/>
+    <mergeCell ref="I55:I60"/>
+    <mergeCell ref="J55:J60"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="C48:C53"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="F48:F53"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="F41:F46"/>
+    <mergeCell ref="H41:H45"/>
+    <mergeCell ref="I41:I45"/>
+    <mergeCell ref="J41:J45"/>
+    <mergeCell ref="E27:E32"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="J34:J38"/>
+    <mergeCell ref="F27:F32"/>
+    <mergeCell ref="H27:H31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="C34:C39"/>
+    <mergeCell ref="C27:C32"/>
+    <mergeCell ref="H20:H24"/>
+    <mergeCell ref="I20:I24"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J20:J24"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="H171:H176"/>
+    <mergeCell ref="I171:I176"/>
+    <mergeCell ref="J171:J176"/>
+    <mergeCell ref="A179:A184"/>
+    <mergeCell ref="B179:B184"/>
+    <mergeCell ref="C179:C184"/>
+    <mergeCell ref="E179:E183"/>
+    <mergeCell ref="F179:F183"/>
+    <mergeCell ref="H179:H184"/>
+    <mergeCell ref="I179:I184"/>
+    <mergeCell ref="J179:J184"/>
+    <mergeCell ref="C171:C176"/>
+    <mergeCell ref="J186:J191"/>
+    <mergeCell ref="H186:H191"/>
+    <mergeCell ref="I186:I191"/>
+    <mergeCell ref="A193:A198"/>
+    <mergeCell ref="B193:B198"/>
+    <mergeCell ref="C193:C198"/>
+    <mergeCell ref="E193:E197"/>
+    <mergeCell ref="F193:F197"/>
+    <mergeCell ref="H193:H198"/>
+    <mergeCell ref="I193:I198"/>
+    <mergeCell ref="J193:J198"/>
+    <mergeCell ref="A186:A191"/>
+    <mergeCell ref="B186:B191"/>
+    <mergeCell ref="C186:C191"/>
+    <mergeCell ref="E186:E190"/>
+    <mergeCell ref="F186:F190"/>
+    <mergeCell ref="A200:A205"/>
+    <mergeCell ref="B200:B205"/>
+    <mergeCell ref="C200:C205"/>
+    <mergeCell ref="E200:E204"/>
+    <mergeCell ref="F200:F204"/>
+    <mergeCell ref="H200:H205"/>
+    <mergeCell ref="I200:I205"/>
+    <mergeCell ref="J200:J205"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="B207:B212"/>
+    <mergeCell ref="C207:C212"/>
+    <mergeCell ref="H207:H212"/>
+    <mergeCell ref="I207:I212"/>
+    <mergeCell ref="J207:J212"/>
+    <mergeCell ref="F207:F212"/>
+    <mergeCell ref="E207:E212"/>
+    <mergeCell ref="A214:A219"/>
+    <mergeCell ref="B214:B219"/>
+    <mergeCell ref="C214:C219"/>
+    <mergeCell ref="E214:E219"/>
+    <mergeCell ref="F214:F219"/>
+    <mergeCell ref="H214:H219"/>
+    <mergeCell ref="I214:I219"/>
+    <mergeCell ref="J214:J219"/>
+    <mergeCell ref="A221:A226"/>
+    <mergeCell ref="B221:B226"/>
+    <mergeCell ref="C221:C226"/>
+    <mergeCell ref="E221:E226"/>
+    <mergeCell ref="F221:F226"/>
+    <mergeCell ref="H221:H226"/>
+    <mergeCell ref="I221:I226"/>
+    <mergeCell ref="J221:J226"/>
     <mergeCell ref="I235:I240"/>
     <mergeCell ref="J235:J240"/>
     <mergeCell ref="H228:H233"/>
@@ -5699,266 +5927,38 @@
     <mergeCell ref="B235:B240"/>
     <mergeCell ref="C235:C240"/>
     <mergeCell ref="H235:H240"/>
-    <mergeCell ref="A214:A219"/>
-    <mergeCell ref="B214:B219"/>
-    <mergeCell ref="C214:C219"/>
-    <mergeCell ref="E214:E219"/>
-    <mergeCell ref="F214:F219"/>
-    <mergeCell ref="H214:H219"/>
-    <mergeCell ref="I214:I219"/>
-    <mergeCell ref="J214:J219"/>
-    <mergeCell ref="A221:A226"/>
-    <mergeCell ref="B221:B226"/>
-    <mergeCell ref="C221:C226"/>
-    <mergeCell ref="E221:E226"/>
-    <mergeCell ref="F221:F226"/>
-    <mergeCell ref="H221:H226"/>
-    <mergeCell ref="I221:I226"/>
-    <mergeCell ref="J221:J226"/>
-    <mergeCell ref="A200:A205"/>
-    <mergeCell ref="B200:B205"/>
-    <mergeCell ref="C200:C205"/>
-    <mergeCell ref="E200:E204"/>
-    <mergeCell ref="F200:F204"/>
-    <mergeCell ref="H200:H205"/>
-    <mergeCell ref="I200:I205"/>
-    <mergeCell ref="J200:J205"/>
-    <mergeCell ref="A207:A212"/>
-    <mergeCell ref="B207:B212"/>
-    <mergeCell ref="C207:C212"/>
-    <mergeCell ref="H207:H212"/>
-    <mergeCell ref="I207:I212"/>
-    <mergeCell ref="J207:J212"/>
-    <mergeCell ref="F207:F212"/>
-    <mergeCell ref="E207:E212"/>
-    <mergeCell ref="J186:J191"/>
-    <mergeCell ref="H186:H191"/>
-    <mergeCell ref="I186:I191"/>
-    <mergeCell ref="A193:A198"/>
-    <mergeCell ref="B193:B198"/>
-    <mergeCell ref="C193:C198"/>
-    <mergeCell ref="E193:E197"/>
-    <mergeCell ref="F193:F197"/>
-    <mergeCell ref="H193:H198"/>
-    <mergeCell ref="I193:I198"/>
-    <mergeCell ref="J193:J198"/>
-    <mergeCell ref="A186:A191"/>
-    <mergeCell ref="B186:B191"/>
-    <mergeCell ref="C186:C191"/>
-    <mergeCell ref="E186:E190"/>
-    <mergeCell ref="F186:F190"/>
-    <mergeCell ref="H171:H176"/>
-    <mergeCell ref="I171:I176"/>
-    <mergeCell ref="J171:J176"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="B179:B184"/>
-    <mergeCell ref="C179:C184"/>
-    <mergeCell ref="E179:E183"/>
-    <mergeCell ref="F179:F183"/>
-    <mergeCell ref="H179:H184"/>
-    <mergeCell ref="I179:I184"/>
-    <mergeCell ref="J179:J184"/>
-    <mergeCell ref="J20:J24"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="H27:H31"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B27:B32"/>
-    <mergeCell ref="C34:C39"/>
-    <mergeCell ref="C27:C32"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I24"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="F41:F46"/>
-    <mergeCell ref="H41:H45"/>
-    <mergeCell ref="I41:I45"/>
-    <mergeCell ref="J41:J45"/>
-    <mergeCell ref="E27:E32"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="J34:J38"/>
-    <mergeCell ref="F27:F32"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="J48:J53"/>
-    <mergeCell ref="A55:A60"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="F55:F60"/>
-    <mergeCell ref="H55:H60"/>
-    <mergeCell ref="I55:I60"/>
-    <mergeCell ref="J55:J60"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="C48:C53"/>
-    <mergeCell ref="E48:E53"/>
-    <mergeCell ref="F48:F53"/>
-    <mergeCell ref="H62:H67"/>
-    <mergeCell ref="I62:I67"/>
-    <mergeCell ref="J62:J67"/>
-    <mergeCell ref="A69:A74"/>
-    <mergeCell ref="B69:B74"/>
-    <mergeCell ref="C69:C74"/>
-    <mergeCell ref="E69:E74"/>
-    <mergeCell ref="F69:F74"/>
-    <mergeCell ref="H69:H74"/>
-    <mergeCell ref="I69:I74"/>
-    <mergeCell ref="J69:J74"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:B67"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="E62:E67"/>
-    <mergeCell ref="F62:F67"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="F82:F86"/>
-    <mergeCell ref="H76:H80"/>
-    <mergeCell ref="I76:I80"/>
-    <mergeCell ref="J76:J80"/>
-    <mergeCell ref="H82:H86"/>
-    <mergeCell ref="I82:I86"/>
-    <mergeCell ref="J82:J86"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="E76:E80"/>
-    <mergeCell ref="F76:F80"/>
-    <mergeCell ref="H89:H93"/>
-    <mergeCell ref="I89:I93"/>
-    <mergeCell ref="J89:J93"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="B96:B100"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="E96:E100"/>
-    <mergeCell ref="F96:F100"/>
-    <mergeCell ref="H95:H99"/>
-    <mergeCell ref="I95:I99"/>
-    <mergeCell ref="J95:J99"/>
-    <mergeCell ref="A89:A93"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="E89:E93"/>
-    <mergeCell ref="F89:F93"/>
-    <mergeCell ref="H102:H106"/>
-    <mergeCell ref="I102:I106"/>
-    <mergeCell ref="J102:J106"/>
-    <mergeCell ref="A108:A112"/>
-    <mergeCell ref="B108:B112"/>
-    <mergeCell ref="C108:C112"/>
-    <mergeCell ref="E108:E112"/>
-    <mergeCell ref="F108:F112"/>
-    <mergeCell ref="H108:H112"/>
-    <mergeCell ref="I108:I112"/>
-    <mergeCell ref="J108:J112"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="F102:F106"/>
-    <mergeCell ref="I115:I120"/>
-    <mergeCell ref="J115:J120"/>
-    <mergeCell ref="A122:A127"/>
-    <mergeCell ref="B122:B127"/>
-    <mergeCell ref="C122:C127"/>
-    <mergeCell ref="E122:E127"/>
-    <mergeCell ref="F122:F127"/>
-    <mergeCell ref="H122:H127"/>
-    <mergeCell ref="I122:I127"/>
-    <mergeCell ref="J122:J127"/>
-    <mergeCell ref="C115:C120"/>
-    <mergeCell ref="B115:B120"/>
-    <mergeCell ref="A115:A120"/>
-    <mergeCell ref="E115:E120"/>
-    <mergeCell ref="F115:F120"/>
-    <mergeCell ref="H115:H120"/>
-    <mergeCell ref="J129:J134"/>
-    <mergeCell ref="A136:A141"/>
-    <mergeCell ref="B136:B141"/>
-    <mergeCell ref="C136:C141"/>
-    <mergeCell ref="E136:E141"/>
-    <mergeCell ref="F136:F141"/>
-    <mergeCell ref="H136:H141"/>
-    <mergeCell ref="I136:I141"/>
-    <mergeCell ref="J136:J141"/>
-    <mergeCell ref="A129:A134"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="C129:C134"/>
-    <mergeCell ref="E129:E134"/>
-    <mergeCell ref="F129:F134"/>
-    <mergeCell ref="H129:H134"/>
-    <mergeCell ref="I129:I134"/>
-    <mergeCell ref="H143:H148"/>
-    <mergeCell ref="I143:I148"/>
-    <mergeCell ref="J143:J148"/>
-    <mergeCell ref="A150:A155"/>
-    <mergeCell ref="B150:B155"/>
-    <mergeCell ref="C150:C155"/>
-    <mergeCell ref="E150:E154"/>
-    <mergeCell ref="F150:F154"/>
-    <mergeCell ref="H150:H155"/>
-    <mergeCell ref="I150:I155"/>
-    <mergeCell ref="J150:J155"/>
-    <mergeCell ref="C171:C176"/>
-    <mergeCell ref="E157:E161"/>
-    <mergeCell ref="F157:F161"/>
-    <mergeCell ref="B164:B169"/>
-    <mergeCell ref="B171:B176"/>
-    <mergeCell ref="A164:A169"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="C143:C148"/>
-    <mergeCell ref="E143:E148"/>
-    <mergeCell ref="F143:F148"/>
-    <mergeCell ref="E171:E175"/>
-    <mergeCell ref="F171:F175"/>
-    <mergeCell ref="H157:H162"/>
-    <mergeCell ref="I157:I162"/>
-    <mergeCell ref="J157:J162"/>
-    <mergeCell ref="H164:H169"/>
-    <mergeCell ref="I164:I169"/>
-    <mergeCell ref="J164:J169"/>
-    <mergeCell ref="E164:E168"/>
-    <mergeCell ref="F164:F168"/>
-    <mergeCell ref="A157:A162"/>
-    <mergeCell ref="B157:B162"/>
-    <mergeCell ref="C157:C162"/>
-    <mergeCell ref="C164:C169"/>
+    <mergeCell ref="B249:B254"/>
+    <mergeCell ref="A249:A254"/>
+    <mergeCell ref="C249:C254"/>
+    <mergeCell ref="E249:E254"/>
+    <mergeCell ref="F249:F254"/>
+    <mergeCell ref="H249:H254"/>
+    <mergeCell ref="I249:I254"/>
+    <mergeCell ref="J249:J254"/>
+    <mergeCell ref="A256:A261"/>
+    <mergeCell ref="B256:B261"/>
+    <mergeCell ref="C256:C261"/>
+    <mergeCell ref="E256:E261"/>
+    <mergeCell ref="F256:F261"/>
+    <mergeCell ref="H256:H261"/>
+    <mergeCell ref="I256:I261"/>
+    <mergeCell ref="J256:J261"/>
+    <mergeCell ref="H263:H268"/>
+    <mergeCell ref="I263:I268"/>
+    <mergeCell ref="J263:J268"/>
+    <mergeCell ref="H270:H275"/>
+    <mergeCell ref="I270:I275"/>
+    <mergeCell ref="J270:J275"/>
+    <mergeCell ref="A263:A268"/>
+    <mergeCell ref="B263:B268"/>
+    <mergeCell ref="C263:C268"/>
+    <mergeCell ref="A270:A275"/>
+    <mergeCell ref="B270:B275"/>
+    <mergeCell ref="C270:C275"/>
+    <mergeCell ref="E263:E267"/>
+    <mergeCell ref="E270:E274"/>
+    <mergeCell ref="F270:F274"/>
+    <mergeCell ref="F263:F267"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
